--- a/database/industries/methanol/shefan/cost/quarterly.xlsx
+++ b/database/industries/methanol/shefan/cost/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shefan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2AB8DC-8F29-4F9E-9997-CD12DF61BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54517658-3C13-4FA9-89E9-159E5B61A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شفن-پتروشیمی فناوران</t>
@@ -34,24 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -62,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -721,16 +706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N144"/>
+  <dimension ref="B1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -739,13 +724,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,13 +736,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -773,13 +748,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -788,13 +758,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -805,13 +770,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -822,13 +782,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -837,13 +792,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -864,23 +814,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -889,163 +824,98 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1833120</v>
+        <v>13447524</v>
       </c>
       <c r="F10" s="9">
-        <v>2401307</v>
+        <v>18655970</v>
       </c>
       <c r="G10" s="9">
-        <v>5948560</v>
+        <v>10351876</v>
       </c>
       <c r="H10" s="9">
-        <v>6312654</v>
+        <v>10179469</v>
       </c>
       <c r="I10" s="9">
-        <v>4610470</v>
-      </c>
-      <c r="J10" s="9">
-        <v>7841612</v>
-      </c>
-      <c r="K10" s="9">
-        <v>13447524</v>
-      </c>
-      <c r="L10" s="9">
-        <v>18655970</v>
-      </c>
-      <c r="M10" s="9">
-        <v>10351876</v>
-      </c>
-      <c r="N10" s="9">
-        <v>10179469</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9163656</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>70474</v>
+        <v>84131</v>
       </c>
       <c r="F11" s="11">
-        <v>49989</v>
+        <v>78349</v>
       </c>
       <c r="G11" s="11">
-        <v>74376</v>
+        <v>154887</v>
       </c>
       <c r="H11" s="11">
-        <v>64142</v>
+        <v>145189</v>
       </c>
       <c r="I11" s="11">
-        <v>101743</v>
-      </c>
-      <c r="J11" s="11">
-        <v>91046</v>
-      </c>
-      <c r="K11" s="11">
-        <v>84131</v>
-      </c>
-      <c r="L11" s="11">
-        <v>78349</v>
-      </c>
-      <c r="M11" s="11">
-        <v>154887</v>
-      </c>
-      <c r="N11" s="11">
-        <v>145189</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>149747</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1148631</v>
+        <v>3194515</v>
       </c>
       <c r="F12" s="9">
-        <v>1147641</v>
+        <v>9019697</v>
       </c>
       <c r="G12" s="9">
-        <v>1765972</v>
+        <v>5014180</v>
       </c>
       <c r="H12" s="9">
-        <v>2938424</v>
+        <v>7453075</v>
       </c>
       <c r="I12" s="9">
-        <v>1429380</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2424532</v>
-      </c>
-      <c r="K12" s="9">
-        <v>3194515</v>
-      </c>
-      <c r="L12" s="9">
-        <v>9019697</v>
-      </c>
-      <c r="M12" s="9">
-        <v>5014180</v>
-      </c>
-      <c r="N12" s="9">
-        <v>5855760</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3833297</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>3052225</v>
+        <v>16726170</v>
       </c>
       <c r="F13" s="13">
-        <v>3598937</v>
+        <v>27754016</v>
       </c>
       <c r="G13" s="13">
-        <v>7788908</v>
+        <v>15520943</v>
       </c>
       <c r="H13" s="13">
-        <v>9315220</v>
+        <v>17777733</v>
       </c>
       <c r="I13" s="13">
-        <v>6141593</v>
-      </c>
-      <c r="J13" s="13">
-        <v>10357190</v>
-      </c>
-      <c r="K13" s="13">
-        <v>16726170</v>
-      </c>
-      <c r="L13" s="13">
-        <v>27754016</v>
-      </c>
-      <c r="M13" s="13">
-        <v>15520943</v>
-      </c>
-      <c r="N13" s="13">
-        <v>16180418</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13146700</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1064,62 +934,32 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>3052225</v>
+        <v>16726170</v>
       </c>
       <c r="F15" s="13">
-        <v>3598937</v>
+        <v>27754016</v>
       </c>
       <c r="G15" s="13">
-        <v>7788908</v>
+        <v>15520943</v>
       </c>
       <c r="H15" s="13">
-        <v>9315220</v>
+        <v>17777733</v>
       </c>
       <c r="I15" s="13">
-        <v>6141593</v>
-      </c>
-      <c r="J15" s="13">
-        <v>10357190</v>
-      </c>
-      <c r="K15" s="13">
-        <v>16726170</v>
-      </c>
-      <c r="L15" s="13">
-        <v>27754016</v>
-      </c>
-      <c r="M15" s="13">
-        <v>15520943</v>
-      </c>
-      <c r="N15" s="13">
-        <v>16180418</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13146700</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1138,210 +978,120 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-1521</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>-1088</v>
+        <v>-1</v>
       </c>
       <c r="G17" s="11">
-        <v>-1346</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
-        <v>141</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="11">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>3050704</v>
+        <v>16726170</v>
       </c>
       <c r="F18" s="15">
-        <v>3597849</v>
+        <v>27754015</v>
       </c>
       <c r="G18" s="15">
-        <v>7787562</v>
+        <v>15520943</v>
       </c>
       <c r="H18" s="15">
-        <v>9315361</v>
+        <v>17777732</v>
       </c>
       <c r="I18" s="15">
-        <v>6141592</v>
-      </c>
-      <c r="J18" s="15">
-        <v>10357190</v>
-      </c>
-      <c r="K18" s="15">
-        <v>16726170</v>
-      </c>
-      <c r="L18" s="15">
-        <v>27754015</v>
-      </c>
-      <c r="M18" s="15">
-        <v>15520943</v>
-      </c>
-      <c r="N18" s="15">
-        <v>16180417</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13146701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>561575</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>83702</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>2672434</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>3870001</v>
       </c>
       <c r="I19" s="11">
-        <v>492652</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>2672434</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>248598</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-591438</v>
+        <v>-83702</v>
       </c>
       <c r="F20" s="9">
-        <v>282093</v>
+        <v>-2672434</v>
       </c>
       <c r="G20" s="9">
-        <v>112535</v>
+        <v>-3870001</v>
       </c>
       <c r="H20" s="9">
-        <v>-295842</v>
+        <v>-248598</v>
       </c>
       <c r="I20" s="9">
-        <v>-892741</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-374535</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-83702</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-1321456</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-3870001</v>
-      </c>
-      <c r="N20" s="9">
-        <v>3621402</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-3684012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>3020841</v>
+        <v>16642468</v>
       </c>
       <c r="F21" s="13">
-        <v>3879942</v>
+        <v>26432559</v>
       </c>
       <c r="G21" s="13">
-        <v>7900097</v>
+        <v>14323376</v>
       </c>
       <c r="H21" s="13">
-        <v>9019519</v>
+        <v>21399135</v>
       </c>
       <c r="I21" s="13">
-        <v>5741503</v>
-      </c>
-      <c r="J21" s="13">
-        <v>9982655</v>
-      </c>
-      <c r="K21" s="13">
-        <v>16642468</v>
-      </c>
-      <c r="L21" s="13">
-        <v>26432559</v>
-      </c>
-      <c r="M21" s="13">
-        <v>14323376</v>
-      </c>
-      <c r="N21" s="13">
-        <v>19801819</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9711287</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1360,60 +1110,30 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>3020841</v>
+        <v>16642468</v>
       </c>
       <c r="F23" s="13">
-        <v>3879942</v>
+        <v>26432559</v>
       </c>
       <c r="G23" s="13">
-        <v>7900097</v>
+        <v>14323376</v>
       </c>
       <c r="H23" s="13">
-        <v>9019519</v>
+        <v>21399135</v>
       </c>
       <c r="I23" s="13">
-        <v>5741503</v>
-      </c>
-      <c r="J23" s="13">
-        <v>9982655</v>
-      </c>
-      <c r="K23" s="13">
-        <v>16642468</v>
-      </c>
-      <c r="L23" s="13">
-        <v>26432559</v>
-      </c>
-      <c r="M23" s="13">
-        <v>14323376</v>
-      </c>
-      <c r="N23" s="13">
-        <v>19801819</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9711287</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1422,13 +1142,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1437,13 +1152,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1452,15 +1162,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1479,23 +1184,8 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1504,57 +1194,37 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
@@ -1572,28 +1242,13 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
@@ -1611,25 +1266,10 @@
       <c r="I31" s="9">
         <v>0</v>
       </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1648,23 +1288,8 @@
       <c r="I32" s="13">
         <v>0</v>
       </c>
-      <c r="J32" s="13">
-        <v>0</v>
-      </c>
-      <c r="K32" s="13">
-        <v>0</v>
-      </c>
-      <c r="L32" s="13">
-        <v>0</v>
-      </c>
-      <c r="M32" s="13">
-        <v>0</v>
-      </c>
-      <c r="N32" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1673,13 +1298,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1688,13 +1308,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1703,15 +1318,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1730,23 +1340,8 @@
       <c r="I36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1755,167 +1350,102 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="E38" s="9">
         <v>10121</v>
       </c>
-      <c r="L38" s="9">
+      <c r="F38" s="9">
         <v>6430</v>
       </c>
-      <c r="M38" s="9">
+      <c r="G38" s="9">
         <v>3320</v>
       </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>56901</v>
+        <v>29916</v>
       </c>
       <c r="F39" s="11">
-        <v>31777</v>
+        <v>37745</v>
       </c>
       <c r="G39" s="11">
-        <v>54443</v>
+        <v>36138</v>
       </c>
       <c r="H39" s="11">
-        <v>57311</v>
+        <v>30138</v>
       </c>
       <c r="I39" s="11">
-        <v>50015</v>
-      </c>
-      <c r="J39" s="11">
-        <v>49472</v>
-      </c>
-      <c r="K39" s="11">
-        <v>29916</v>
-      </c>
-      <c r="L39" s="11">
-        <v>37745</v>
-      </c>
-      <c r="M39" s="11">
-        <v>36138</v>
-      </c>
-      <c r="N39" s="11">
-        <v>30138</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>53014</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>201875</v>
+        <v>187096</v>
       </c>
       <c r="F40" s="9">
-        <v>207406</v>
+        <v>186161</v>
       </c>
       <c r="G40" s="9">
-        <v>191468</v>
+        <v>193389</v>
       </c>
       <c r="H40" s="9">
-        <v>184534</v>
+        <v>197931</v>
       </c>
       <c r="I40" s="9">
-        <v>180026</v>
-      </c>
-      <c r="J40" s="9">
-        <v>199216</v>
-      </c>
-      <c r="K40" s="9">
-        <v>187096</v>
-      </c>
-      <c r="L40" s="9">
-        <v>186161</v>
-      </c>
-      <c r="M40" s="9">
-        <v>193389</v>
-      </c>
-      <c r="N40" s="9">
-        <v>197931</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>168880</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>258776</v>
+        <v>227133</v>
       </c>
       <c r="F41" s="13">
-        <v>239183</v>
+        <v>230336</v>
       </c>
       <c r="G41" s="13">
-        <v>245911</v>
+        <v>232847</v>
       </c>
       <c r="H41" s="13">
-        <v>241845</v>
+        <v>228069</v>
       </c>
       <c r="I41" s="13">
-        <v>230041</v>
-      </c>
-      <c r="J41" s="13">
-        <v>248688</v>
-      </c>
-      <c r="K41" s="13">
-        <v>227133</v>
-      </c>
-      <c r="L41" s="13">
-        <v>230336</v>
-      </c>
-      <c r="M41" s="13">
-        <v>232847</v>
-      </c>
-      <c r="N41" s="13">
-        <v>228069</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>223050</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1924,13 +1454,8 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1939,13 +1464,8 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1954,15 +1474,10 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1981,23 +1496,8 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2006,167 +1506,102 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="9">
+      <c r="E47" s="9">
         <v>10121</v>
       </c>
-      <c r="L47" s="9">
+      <c r="F47" s="9">
         <v>6430</v>
       </c>
-      <c r="M47" s="9">
+      <c r="G47" s="9">
         <v>3320</v>
       </c>
-      <c r="N47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>56901</v>
+        <v>29916</v>
       </c>
       <c r="F48" s="11">
-        <v>31777</v>
+        <v>37745</v>
       </c>
       <c r="G48" s="11">
-        <v>54443</v>
+        <v>36138</v>
       </c>
       <c r="H48" s="11">
-        <v>57311</v>
+        <v>30138</v>
       </c>
       <c r="I48" s="11">
-        <v>50015</v>
-      </c>
-      <c r="J48" s="11">
-        <v>49472</v>
-      </c>
-      <c r="K48" s="11">
-        <v>29916</v>
-      </c>
-      <c r="L48" s="11">
-        <v>37745</v>
-      </c>
-      <c r="M48" s="11">
-        <v>36138</v>
-      </c>
-      <c r="N48" s="11">
-        <v>30138</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>53014</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>201875</v>
+        <v>187096</v>
       </c>
       <c r="F49" s="9">
-        <v>207406</v>
+        <v>186161</v>
       </c>
       <c r="G49" s="9">
-        <v>191468</v>
+        <v>193389</v>
       </c>
       <c r="H49" s="9">
-        <v>184534</v>
+        <v>197931</v>
       </c>
       <c r="I49" s="9">
-        <v>180026</v>
-      </c>
-      <c r="J49" s="9">
-        <v>199216</v>
-      </c>
-      <c r="K49" s="9">
-        <v>187096</v>
-      </c>
-      <c r="L49" s="9">
-        <v>186161</v>
-      </c>
-      <c r="M49" s="9">
-        <v>193389</v>
-      </c>
-      <c r="N49" s="9">
-        <v>197931</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+        <v>168880</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>258776</v>
+        <v>227133</v>
       </c>
       <c r="F50" s="13">
-        <v>239183</v>
+        <v>230336</v>
       </c>
       <c r="G50" s="13">
-        <v>245911</v>
+        <v>232847</v>
       </c>
       <c r="H50" s="13">
-        <v>241845</v>
+        <v>228069</v>
       </c>
       <c r="I50" s="13">
-        <v>230041</v>
-      </c>
-      <c r="J50" s="13">
-        <v>248688</v>
-      </c>
-      <c r="K50" s="13">
-        <v>227133</v>
-      </c>
-      <c r="L50" s="13">
-        <v>230336</v>
-      </c>
-      <c r="M50" s="13">
-        <v>232847</v>
-      </c>
-      <c r="N50" s="13">
-        <v>228069</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>223050</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2175,13 +1610,8 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2190,13 +1620,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2205,15 +1630,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2232,23 +1652,8 @@
       <c r="I54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2257,57 +1662,37 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K56" s="9">
-        <v>0</v>
-      </c>
-      <c r="L56" s="9">
-        <v>0</v>
-      </c>
-      <c r="M56" s="9">
-        <v>0</v>
-      </c>
-      <c r="N56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
@@ -2325,28 +1710,13 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-      <c r="J57" s="11">
-        <v>0</v>
-      </c>
-      <c r="K57" s="11">
-        <v>0</v>
-      </c>
-      <c r="L57" s="11">
-        <v>0</v>
-      </c>
-      <c r="M57" s="11">
-        <v>0</v>
-      </c>
-      <c r="N57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
@@ -2364,25 +1734,10 @@
       <c r="I58" s="9">
         <v>0</v>
       </c>
-      <c r="J58" s="9">
-        <v>0</v>
-      </c>
-      <c r="K58" s="9">
-        <v>0</v>
-      </c>
-      <c r="L58" s="9">
-        <v>0</v>
-      </c>
-      <c r="M58" s="9">
-        <v>0</v>
-      </c>
-      <c r="N58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2401,23 +1756,8 @@
       <c r="I59" s="13">
         <v>0</v>
       </c>
-      <c r="J59" s="13">
-        <v>0</v>
-      </c>
-      <c r="K59" s="13">
-        <v>0</v>
-      </c>
-      <c r="L59" s="13">
-        <v>0</v>
-      </c>
-      <c r="M59" s="13">
-        <v>0</v>
-      </c>
-      <c r="N59" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2426,13 +1766,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2441,13 +1776,8 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2456,15 +1786,10 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2483,23 +1808,8 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2508,57 +1818,37 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
@@ -2576,28 +1866,13 @@
       <c r="I66" s="11">
         <v>0</v>
       </c>
-      <c r="J66" s="11">
-        <v>0</v>
-      </c>
-      <c r="K66" s="11">
-        <v>0</v>
-      </c>
-      <c r="L66" s="11">
-        <v>0</v>
-      </c>
-      <c r="M66" s="11">
-        <v>0</v>
-      </c>
-      <c r="N66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
@@ -2615,25 +1890,10 @@
       <c r="I67" s="9">
         <v>0</v>
       </c>
-      <c r="J67" s="9">
-        <v>0</v>
-      </c>
-      <c r="K67" s="9">
-        <v>0</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0</v>
-      </c>
-      <c r="M67" s="9">
-        <v>0</v>
-      </c>
-      <c r="N67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -2652,23 +1912,8 @@
       <c r="I68" s="13">
         <v>0</v>
       </c>
-      <c r="J68" s="13">
-        <v>0</v>
-      </c>
-      <c r="K68" s="13">
-        <v>0</v>
-      </c>
-      <c r="L68" s="13">
-        <v>0</v>
-      </c>
-      <c r="M68" s="13">
-        <v>0</v>
-      </c>
-      <c r="N68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2677,13 +1922,8 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2692,13 +1932,8 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2707,15 +1942,10 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2734,23 +1964,8 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N72" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2759,167 +1974,102 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K74" s="9">
+      <c r="E74" s="9">
         <v>903672</v>
       </c>
-      <c r="L74" s="9">
+      <c r="F74" s="9">
         <v>603599</v>
       </c>
-      <c r="M74" s="9">
+      <c r="G74" s="9">
         <v>159089</v>
       </c>
-      <c r="N74" s="9">
+      <c r="H74" s="9">
         <v>177644</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I74" s="9">
+        <v>90150</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>157361</v>
+        <v>127038</v>
       </c>
       <c r="F75" s="11">
-        <v>130252</v>
+        <v>156485</v>
       </c>
       <c r="G75" s="11">
-        <v>217950</v>
+        <v>336733</v>
       </c>
       <c r="H75" s="11">
-        <v>218976</v>
+        <v>-58443</v>
       </c>
       <c r="I75" s="11">
-        <v>175958</v>
-      </c>
-      <c r="J75" s="11">
-        <v>178479</v>
-      </c>
-      <c r="K75" s="11">
-        <v>127038</v>
-      </c>
-      <c r="L75" s="11">
-        <v>156485</v>
-      </c>
-      <c r="M75" s="11">
-        <v>336733</v>
-      </c>
-      <c r="N75" s="11">
-        <v>-58443</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+        <v>286380</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>1675759</v>
+        <v>12416814</v>
       </c>
       <c r="F76" s="9">
-        <v>2271055</v>
+        <v>17895886</v>
       </c>
       <c r="G76" s="9">
-        <v>5730610</v>
+        <v>9856054</v>
       </c>
       <c r="H76" s="9">
-        <v>6093678</v>
+        <v>10060268</v>
       </c>
       <c r="I76" s="9">
-        <v>4434512</v>
-      </c>
-      <c r="J76" s="9">
-        <v>7663133</v>
-      </c>
-      <c r="K76" s="9">
-        <v>12416814</v>
-      </c>
-      <c r="L76" s="9">
-        <v>17895886</v>
-      </c>
-      <c r="M76" s="9">
-        <v>9856054</v>
-      </c>
-      <c r="N76" s="9">
-        <v>10060268</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8787126</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>1833120</v>
+        <v>13447524</v>
       </c>
       <c r="F77" s="13">
-        <v>2401307</v>
+        <v>18655970</v>
       </c>
       <c r="G77" s="13">
-        <v>5948560</v>
+        <v>10351876</v>
       </c>
       <c r="H77" s="13">
-        <v>6312654</v>
+        <v>10179469</v>
       </c>
       <c r="I77" s="13">
-        <v>4610470</v>
-      </c>
-      <c r="J77" s="13">
-        <v>7841612</v>
-      </c>
-      <c r="K77" s="13">
-        <v>13447524</v>
-      </c>
-      <c r="L77" s="13">
-        <v>18655970</v>
-      </c>
-      <c r="M77" s="13">
-        <v>10351876</v>
-      </c>
-      <c r="N77" s="13">
-        <v>10179469</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9163656</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2928,13 +2078,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2943,13 +2088,8 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2958,15 +2098,10 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2985,23 +2120,8 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3010,167 +2130,102 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K83" s="9">
+      <c r="E83" s="9">
         <v>903672</v>
       </c>
-      <c r="L83" s="9">
+      <c r="F83" s="9">
         <v>603599</v>
       </c>
-      <c r="M83" s="9">
+      <c r="G83" s="9">
         <v>159089</v>
       </c>
-      <c r="N83" s="9">
+      <c r="H83" s="9">
         <v>177644</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I83" s="9">
+        <v>90150</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>157361</v>
+        <v>127038</v>
       </c>
       <c r="F84" s="11">
-        <v>130252</v>
+        <v>156485</v>
       </c>
       <c r="G84" s="11">
-        <v>217950</v>
+        <v>336733</v>
       </c>
       <c r="H84" s="11">
-        <v>218976</v>
+        <v>-58443</v>
       </c>
       <c r="I84" s="11">
-        <v>175958</v>
-      </c>
-      <c r="J84" s="11">
-        <v>178479</v>
-      </c>
-      <c r="K84" s="11">
-        <v>127038</v>
-      </c>
-      <c r="L84" s="11">
-        <v>156485</v>
-      </c>
-      <c r="M84" s="11">
-        <v>336733</v>
-      </c>
-      <c r="N84" s="11">
-        <v>-58443</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+        <v>286380</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>1675759</v>
+        <v>12416814</v>
       </c>
       <c r="F85" s="9">
-        <v>2271055</v>
+        <v>17895886</v>
       </c>
       <c r="G85" s="9">
-        <v>5730610</v>
+        <v>9856054</v>
       </c>
       <c r="H85" s="9">
-        <v>6093678</v>
+        <v>10060268</v>
       </c>
       <c r="I85" s="9">
-        <v>4434512</v>
-      </c>
-      <c r="J85" s="9">
-        <v>7663133</v>
-      </c>
-      <c r="K85" s="9">
-        <v>12416814</v>
-      </c>
-      <c r="L85" s="9">
-        <v>17895886</v>
-      </c>
-      <c r="M85" s="9">
-        <v>9856054</v>
-      </c>
-      <c r="N85" s="9">
-        <v>10060268</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8787126</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>1833120</v>
+        <v>13447524</v>
       </c>
       <c r="F86" s="13">
-        <v>2401307</v>
+        <v>18655970</v>
       </c>
       <c r="G86" s="13">
-        <v>5948560</v>
+        <v>10351876</v>
       </c>
       <c r="H86" s="13">
-        <v>6312654</v>
+        <v>10179469</v>
       </c>
       <c r="I86" s="13">
-        <v>4610470</v>
-      </c>
-      <c r="J86" s="13">
-        <v>7841612</v>
-      </c>
-      <c r="K86" s="13">
-        <v>13447524</v>
-      </c>
-      <c r="L86" s="13">
-        <v>18655970</v>
-      </c>
-      <c r="M86" s="13">
-        <v>10351876</v>
-      </c>
-      <c r="N86" s="13">
-        <v>10179469</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9163656</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3179,13 +2234,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3194,13 +2244,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3209,15 +2254,10 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3236,23 +2276,8 @@
       <c r="I90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N90" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3261,57 +2286,37 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K92" s="9">
-        <v>0</v>
-      </c>
-      <c r="L92" s="9">
-        <v>0</v>
-      </c>
-      <c r="M92" s="9">
-        <v>0</v>
-      </c>
-      <c r="N92" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
@@ -3329,28 +2334,13 @@
       <c r="I93" s="11">
         <v>0</v>
       </c>
-      <c r="J93" s="11">
-        <v>0</v>
-      </c>
-      <c r="K93" s="11">
-        <v>0</v>
-      </c>
-      <c r="L93" s="11">
-        <v>0</v>
-      </c>
-      <c r="M93" s="11">
-        <v>0</v>
-      </c>
-      <c r="N93" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
@@ -3368,25 +2358,10 @@
       <c r="I94" s="9">
         <v>0</v>
       </c>
-      <c r="J94" s="9">
-        <v>0</v>
-      </c>
-      <c r="K94" s="9">
-        <v>0</v>
-      </c>
-      <c r="L94" s="9">
-        <v>0</v>
-      </c>
-      <c r="M94" s="9">
-        <v>0</v>
-      </c>
-      <c r="N94" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -3405,23 +2380,8 @@
       <c r="I95" s="13">
         <v>0</v>
       </c>
-      <c r="J95" s="13">
-        <v>0</v>
-      </c>
-      <c r="K95" s="13">
-        <v>0</v>
-      </c>
-      <c r="L95" s="13">
-        <v>0</v>
-      </c>
-      <c r="M95" s="13">
-        <v>0</v>
-      </c>
-      <c r="N95" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3430,13 +2390,8 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3445,13 +2400,8 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3460,15 +2410,10 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3487,23 +2432,8 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N99" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3512,130 +2442,80 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>31</v>
+      <c r="E101" s="9">
+        <v>89286829</v>
+      </c>
+      <c r="F101" s="9">
+        <v>93872317</v>
+      </c>
+      <c r="G101" s="9">
+        <v>47918373</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K101" s="9">
-        <v>89286829</v>
-      </c>
-      <c r="L101" s="9">
-        <v>93872317</v>
-      </c>
-      <c r="M101" s="9">
-        <v>47918373</v>
-      </c>
-      <c r="N101" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I101" s="9">
+        <v>77984429</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>2765523</v>
+        <v>4246490</v>
       </c>
       <c r="F102" s="11">
-        <v>4098939</v>
+        <v>4145847</v>
       </c>
       <c r="G102" s="11">
-        <v>4003269</v>
+        <v>9317976</v>
       </c>
       <c r="H102" s="11">
-        <v>3820837</v>
+        <v>-1939180</v>
       </c>
       <c r="I102" s="11">
-        <v>3518105</v>
-      </c>
-      <c r="J102" s="11">
-        <v>3607677</v>
-      </c>
-      <c r="K102" s="11">
-        <v>4246490</v>
-      </c>
-      <c r="L102" s="11">
-        <v>4145847</v>
-      </c>
-      <c r="M102" s="11">
-        <v>9317976</v>
-      </c>
-      <c r="N102" s="11">
-        <v>-1939180</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+        <v>5401969</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>8300973</v>
+        <v>66366005</v>
       </c>
       <c r="F103" s="9">
-        <v>10949804</v>
+        <v>96131230</v>
       </c>
       <c r="G103" s="9">
-        <v>29929858</v>
+        <v>50964915</v>
       </c>
       <c r="H103" s="9">
-        <v>33021980</v>
+        <v>50827147</v>
       </c>
       <c r="I103" s="9">
-        <v>24632620</v>
-      </c>
-      <c r="J103" s="9">
-        <v>38466454</v>
-      </c>
-      <c r="K103" s="9">
-        <v>66366005</v>
-      </c>
-      <c r="L103" s="9">
-        <v>96131230</v>
-      </c>
-      <c r="M103" s="9">
-        <v>50964915</v>
-      </c>
-      <c r="N103" s="9">
-        <v>50827147</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+        <v>52031774</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3644,13 +2524,8 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3659,13 +2534,8 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3674,15 +2544,10 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3701,23 +2566,8 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N107" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3726,130 +2576,80 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>31</v>
+      <c r="E109" s="9">
+        <v>89286829</v>
+      </c>
+      <c r="F109" s="9">
+        <v>93872317</v>
+      </c>
+      <c r="G109" s="9">
+        <v>47918373</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K109" s="9">
-        <v>89286829</v>
-      </c>
-      <c r="L109" s="9">
-        <v>93872317</v>
-      </c>
-      <c r="M109" s="9">
-        <v>47918373</v>
-      </c>
-      <c r="N109" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I109" s="9">
+        <v>77984429</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>2765523</v>
+        <v>4246490</v>
       </c>
       <c r="F110" s="11">
-        <v>4098939</v>
+        <v>4145847</v>
       </c>
       <c r="G110" s="11">
-        <v>4003269</v>
+        <v>9317976</v>
       </c>
       <c r="H110" s="11">
-        <v>3820837</v>
+        <v>-1939180</v>
       </c>
       <c r="I110" s="11">
-        <v>3518105</v>
-      </c>
-      <c r="J110" s="11">
-        <v>3607677</v>
-      </c>
-      <c r="K110" s="11">
-        <v>4246490</v>
-      </c>
-      <c r="L110" s="11">
-        <v>4145847</v>
-      </c>
-      <c r="M110" s="11">
-        <v>9317976</v>
-      </c>
-      <c r="N110" s="11">
-        <v>-1939180</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+        <v>5401969</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>8300973</v>
+        <v>66366005</v>
       </c>
       <c r="F111" s="9">
-        <v>10949804</v>
+        <v>96131230</v>
       </c>
       <c r="G111" s="9">
-        <v>29929858</v>
+        <v>50964915</v>
       </c>
       <c r="H111" s="9">
-        <v>33021980</v>
+        <v>50827147</v>
       </c>
       <c r="I111" s="9">
-        <v>24632620</v>
-      </c>
-      <c r="J111" s="9">
-        <v>38466454</v>
-      </c>
-      <c r="K111" s="9">
-        <v>66366005</v>
-      </c>
-      <c r="L111" s="9">
-        <v>96131230</v>
-      </c>
-      <c r="M111" s="9">
-        <v>50964915</v>
-      </c>
-      <c r="N111" s="9">
-        <v>50827147</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+        <v>52031774</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3858,13 +2658,8 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3873,13 +2668,8 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3888,15 +2678,10 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3915,23 +2700,8 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J115" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3940,15 +2710,10 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -3967,25 +2732,10 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-      <c r="J117" s="9">
-        <v>0</v>
-      </c>
-      <c r="K117" s="9">
-        <v>0</v>
-      </c>
-      <c r="L117" s="9">
-        <v>0</v>
-      </c>
-      <c r="M117" s="9">
-        <v>0</v>
-      </c>
-      <c r="N117" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -4004,25 +2754,10 @@
       <c r="I118" s="11">
         <v>0</v>
       </c>
-      <c r="J118" s="11">
-        <v>0</v>
-      </c>
-      <c r="K118" s="11">
-        <v>0</v>
-      </c>
-      <c r="L118" s="11">
-        <v>0</v>
-      </c>
-      <c r="M118" s="11">
-        <v>0</v>
-      </c>
-      <c r="N118" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -4041,25 +2776,10 @@
       <c r="I119" s="9">
         <v>0</v>
       </c>
-      <c r="J119" s="9">
-        <v>0</v>
-      </c>
-      <c r="K119" s="9">
-        <v>0</v>
-      </c>
-      <c r="L119" s="9">
-        <v>0</v>
-      </c>
-      <c r="M119" s="9">
-        <v>0</v>
-      </c>
-      <c r="N119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -4078,173 +2798,98 @@
       <c r="I120" s="11">
         <v>0</v>
       </c>
-      <c r="J120" s="11">
-        <v>0</v>
-      </c>
-      <c r="K120" s="11">
-        <v>0</v>
-      </c>
-      <c r="L120" s="11">
-        <v>0</v>
-      </c>
-      <c r="M120" s="11">
-        <v>0</v>
-      </c>
-      <c r="N120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>12445</v>
+        <v>75680</v>
       </c>
       <c r="F121" s="9">
-        <v>27228</v>
+        <v>131322</v>
       </c>
       <c r="G121" s="9">
-        <v>34494</v>
+        <v>205476</v>
       </c>
       <c r="H121" s="9">
-        <v>81494</v>
+        <v>105774</v>
       </c>
       <c r="I121" s="9">
-        <v>51920</v>
-      </c>
-      <c r="J121" s="9">
-        <v>141498</v>
-      </c>
-      <c r="K121" s="9">
-        <v>75680</v>
-      </c>
-      <c r="L121" s="9">
-        <v>131322</v>
-      </c>
-      <c r="M121" s="9">
-        <v>205476</v>
-      </c>
-      <c r="N121" s="9">
-        <v>105774</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+        <v>173582</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>584949</v>
+        <v>1507370</v>
       </c>
       <c r="F122" s="11">
-        <v>574475</v>
+        <v>7420933</v>
       </c>
       <c r="G122" s="11">
-        <v>593712</v>
+        <v>3152711</v>
       </c>
       <c r="H122" s="11">
-        <v>669878</v>
+        <v>3179201</v>
       </c>
       <c r="I122" s="11">
-        <v>864464</v>
-      </c>
-      <c r="J122" s="11">
-        <v>1249281</v>
-      </c>
-      <c r="K122" s="11">
-        <v>1507370</v>
-      </c>
-      <c r="L122" s="11">
-        <v>7420933</v>
-      </c>
-      <c r="M122" s="11">
-        <v>3152711</v>
-      </c>
-      <c r="N122" s="11">
-        <v>3179201</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2826957</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>38220</v>
+        <v>28233</v>
       </c>
       <c r="F123" s="9">
-        <v>38803</v>
+        <v>26012</v>
       </c>
       <c r="G123" s="9">
-        <v>38635</v>
+        <v>18674</v>
       </c>
       <c r="H123" s="9">
-        <v>39126</v>
+        <v>20558</v>
       </c>
       <c r="I123" s="9">
-        <v>38902</v>
-      </c>
-      <c r="J123" s="9">
-        <v>38903</v>
-      </c>
-      <c r="K123" s="9">
-        <v>28233</v>
-      </c>
-      <c r="L123" s="9">
-        <v>26012</v>
-      </c>
-      <c r="M123" s="9">
-        <v>18674</v>
-      </c>
-      <c r="N123" s="9">
-        <v>20558</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+        <v>21065</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>144594</v>
+        <v>190367</v>
       </c>
       <c r="F124" s="11">
-        <v>101021</v>
+        <v>192895</v>
       </c>
       <c r="G124" s="11">
-        <v>170113</v>
+        <v>303221</v>
       </c>
       <c r="H124" s="11">
-        <v>132714</v>
+        <v>346170</v>
       </c>
       <c r="I124" s="11">
-        <v>229503</v>
-      </c>
-      <c r="J124" s="11">
-        <v>267837</v>
-      </c>
-      <c r="K124" s="11">
-        <v>190367</v>
-      </c>
-      <c r="L124" s="11">
-        <v>192895</v>
-      </c>
-      <c r="M124" s="11">
-        <v>303221</v>
-      </c>
-      <c r="N124" s="11">
-        <v>346170</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+        <v>356806</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -4263,97 +2908,52 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-      <c r="J125" s="9">
-        <v>0</v>
-      </c>
-      <c r="K125" s="9">
-        <v>0</v>
-      </c>
-      <c r="L125" s="9">
-        <v>0</v>
-      </c>
-      <c r="M125" s="9">
-        <v>0</v>
-      </c>
-      <c r="N125" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>368423</v>
+        <v>1392865</v>
       </c>
       <c r="F126" s="11">
-        <v>406114</v>
+        <v>1248535</v>
       </c>
       <c r="G126" s="11">
-        <v>929018</v>
+        <v>1334098</v>
       </c>
       <c r="H126" s="11">
-        <v>2015212</v>
+        <v>3801372</v>
       </c>
       <c r="I126" s="11">
-        <v>244591</v>
-      </c>
-      <c r="J126" s="11">
-        <v>727013</v>
-      </c>
-      <c r="K126" s="11">
-        <v>1392865</v>
-      </c>
-      <c r="L126" s="11">
-        <v>1248535</v>
-      </c>
-      <c r="M126" s="11">
-        <v>1334098</v>
-      </c>
-      <c r="N126" s="11">
-        <v>2204057</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+        <v>454887</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
-        <v>1148631</v>
+        <v>3194515</v>
       </c>
       <c r="F127" s="15">
-        <v>1147641</v>
+        <v>9019697</v>
       </c>
       <c r="G127" s="15">
-        <v>1765972</v>
+        <v>5014180</v>
       </c>
       <c r="H127" s="15">
-        <v>2938424</v>
+        <v>7453075</v>
       </c>
       <c r="I127" s="15">
-        <v>1429380</v>
-      </c>
-      <c r="J127" s="15">
-        <v>2424532</v>
-      </c>
-      <c r="K127" s="15">
-        <v>3194515</v>
-      </c>
-      <c r="L127" s="15">
-        <v>9019697</v>
-      </c>
-      <c r="M127" s="15">
-        <v>5014180</v>
-      </c>
-      <c r="N127" s="15">
-        <v>5855760</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3833297</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4362,13 +2962,8 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4377,13 +2972,8 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4392,15 +2982,10 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4409,13 +2994,8 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4424,18 +3004,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -4443,18 +3018,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -4462,18 +3032,13 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -4481,106 +3046,101 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>

--- a/database/industries/methanol/shefan/cost/quarterly.xlsx
+++ b/database/industries/methanol/shefan/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shefan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54517658-3C13-4FA9-89E9-159E5B61A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5A7809-C590-4BB6-BF16-302EAC1E24BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -52,6 +67,9 @@
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>دستمزد مستقیم تولید</t>
   </si>
   <si>
@@ -100,9 +118,6 @@
     <t>تن</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>گاز دی اکسید کربن</t>
   </si>
   <si>
@@ -211,18 +226,6 @@
     <t>مواد اولیه و یوتیلیتی مصرفی عمده ترین عوامل بھای تمام شده می باشد. ھرماھه نرخ گازطبیعی که عمده ترین ماده اولیه این شرکت می باشد از طریق مراجع ذیصلاح تعیین و اعلام می گردد. لازم به ذکر است بموجب تصویب ھیئت وزیران نرخ گاز سوخت ھمانند سال ٩٨ به مبلغ 2.600ریال برای هر متر مکعب تعیین گردیده و با احتساب عوارض و ھزینه ھای بالاسری مبلغ 2.900 ریال در پیش بینی ھای 6 ماھه باقی مانده سال ٩٩ لحاظ شده است.</t>
   </si>
   <si>
-    <t>دوره 3 ماهه منتهی به 1399/12/30</t>
-  </si>
-  <si>
-    <t>مواد اولیه و یوتیلیتی مصرفی عمده ترین عوامل بھای تمام شده می باشد. ھرماھه نرخ گازطبیعی که عمده ترین ماده اولیه این شرکت می باشد از طریق مراجع ذیصلاح تعیین و اعلام می گردد. لازم به ذکر است بموجب تصویب ھیئت وزیران نرخ گاز سوخت ھمانند سال ٩٨ به مبلغ 2.600 ریال برای ھر متر مکعب تعیین گردیده و با احتساب عوارض و ھزینه ھای بالاسری مبلغ 22.000 ریال در پیش بینی ھای 3 ماھه باقی مانده سال ٩٩ لحاظ شده است.</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به</t>
-  </si>
-  <si>
-    <t>١-با توجه به عدم اعلام نرخ یوتیلیتی مصرفی برای سال 1400 ، محاسبات سال آینده برمبنای آخرین نرخھای اعلامی شورای رقابت که مربوط به سال ١٣٩٨است بعلاوه 20% درنظر گرفته می شود . 2- بموجب مصوبه ھیئت وزیران نرخ گاز خوراک طبق نرخھای اعلامی توسط مراجع ذیصلاح و برمبنای محاسبه نرخ تسعیر ارز در ھرماه با استفاده از متوسط نرخ معاملاتی در سامانه نیما صورت می پذیرد . نرخ گاز خوراک برای سال آینده با احتساب 8 سنت برای هر متر مکعب گاز خوراک و 10% بالاسری جهت پوشش هزینه های تعرفه و خدمات سازمان منطقه ویژه اقتصادی پتروشیمی  ، با نرخ 22.000 ریال به ازاء ھر مترمکعب اعمال گردیده است.</t>
-  </si>
-  <si>
     <t>دوره 9 ماهه منتهی به 1398/12/29</t>
   </si>
   <si>
@@ -242,6 +245,12 @@
   </si>
   <si>
     <t>مواد اولیه و یوتیلیتی مصرفی عمده ترین عوامل بهای تمام شده می باشد. هرماهه نرخ گازطبیعی که عمده ترین ماده اولیه این شرکت می باشد از طریق مراجع ذیصلاح تعیین و اعلام می گردد. لازم به ذکر است بموجب قانون بودجه سال 98 و تصویب هیئت وزیران نرخ گاز سوخت همانند سال 98 به مبلغ 2,600ریال تعیین گردیده و با احتساب عوارض و هزینه های بالاسری مبلغ 2.900 ریال در پیش بینی های سال 98 لحاظ شده است.</t>
+  </si>
+  <si>
+    <t>دوره 12 ماهه منتهی به 1400/12/29</t>
+  </si>
+  <si>
+    <t>١-با توجه به عدم اعلام نرخ یوتیلیتی مصرفی برای سال 1400 ، محاسبات سال آینده برمبنای آخرین نرخھای اعلامی شورای رقابت که مربوط به سال ١٣٩9است بعلاوه 20% درنظر گرفته می شود . 2- بموجب مصوبه ھیئت وزیران نرخ گاز خوراک طبق نرخھای اعلامی توسط مراجع ذیصلاح و برمبنای محاسبه نرخ تسعیر ارز در ھرماه با استفاده از متوسط نرخ معاملاتی در سامانه نیما صورت می پذیرد . نرخ گاز خوراک برای سال آینده با احتساب 8 سنت برای هر متر مکعب گاز خوراک و 10% بالاسری جهت پوشش هزینه های تعرفه و خدمات سازمان منطقه ویژه اقتصادی پتروشیمی ، با نرخ 22.000 ریال به ازاء ھر مترمکعب اعمال گردیده است.</t>
   </si>
   <si>
     <t>دوره 9 ماهه منتهی به 1400/12/29</t>
@@ -706,16 +715,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I144"/>
+  <dimension ref="B1:N143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,8 +733,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +750,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,8 +767,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -758,8 +782,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -770,8 +799,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,8 +816,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -792,8 +831,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -814,8 +858,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -824,106 +883,171 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>2401307</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6312654</v>
+      </c>
+      <c r="H10" s="9">
+        <v>4610470</v>
+      </c>
+      <c r="I10" s="9">
+        <v>7841612</v>
+      </c>
+      <c r="J10" s="9">
         <v>13447524</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>18655970</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>10351876</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>10179469</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>9163656</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>49989</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11">
+        <v>64142</v>
+      </c>
+      <c r="H11" s="11">
+        <v>101743</v>
+      </c>
+      <c r="I11" s="11">
+        <v>91046</v>
+      </c>
+      <c r="J11" s="11">
         <v>84131</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>78349</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>154887</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>145189</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>149747</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>1147641</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2938424</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1429380</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2424532</v>
+      </c>
+      <c r="J12" s="9">
         <v>3194515</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>9019697</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>5014180</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>7453075</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>3833297</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>3598937</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13">
+        <v>9315220</v>
+      </c>
+      <c r="H13" s="13">
+        <v>6141593</v>
+      </c>
+      <c r="I13" s="13">
+        <v>10357190</v>
+      </c>
+      <c r="J13" s="13">
         <v>16726170</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>27754016</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>15520943</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>17777733</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>13146700</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -934,40 +1058,70 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>3598937</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="13">
+        <v>9315220</v>
+      </c>
+      <c r="H15" s="13">
+        <v>6141593</v>
+      </c>
+      <c r="I15" s="13">
+        <v>10357190</v>
+      </c>
+      <c r="J15" s="13">
         <v>16726170</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>27754016</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>15520943</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>17777733</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>13146700</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
+      <c r="F16" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -978,128 +1132,218 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>-1</v>
+        <v>-1088</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="H17" s="11">
         <v>-1</v>
       </c>
       <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>3597849</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15">
+        <v>9315361</v>
+      </c>
+      <c r="H18" s="15">
+        <v>6141592</v>
+      </c>
+      <c r="I18" s="15">
+        <v>10357190</v>
+      </c>
+      <c r="J18" s="15">
         <v>16726170</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>27754015</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>15520943</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>17777732</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>13146701</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="11">
+        <v>112535</v>
+      </c>
+      <c r="H19" s="11">
+        <v>492652</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>374535</v>
+      </c>
+      <c r="K19" s="11">
         <v>83702</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>2672434</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>3870001</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>248598</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-83702</v>
-      </c>
-      <c r="F20" s="9">
+        <v>282093</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-892741</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-374535</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="9">
         <v>-2672434</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-3870001</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-248598</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-3684012</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>3879942</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13">
+        <v>9019519</v>
+      </c>
+      <c r="H21" s="13">
+        <v>5741503</v>
+      </c>
+      <c r="I21" s="13">
+        <v>9982655</v>
+      </c>
+      <c r="J21" s="13">
         <v>16642468</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>26432559</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>14323376</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>21399135</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>9711287</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
+      <c r="F22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -1110,30 +1354,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>3879942</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="13">
+        <v>9019519</v>
+      </c>
+      <c r="H23" s="13">
+        <v>5741503</v>
+      </c>
+      <c r="I23" s="13">
+        <v>9982655</v>
+      </c>
+      <c r="J23" s="13">
         <v>16642468</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>26432559</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>14323376</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>21399135</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>9711287</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1142,8 +1416,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1152,8 +1431,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,10 +1446,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1184,8 +1473,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1194,47 +1498,67 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
+      <c r="F30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
@@ -1242,20 +1566,35 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
         <v>0</v>
       </c>
-      <c r="F31" s="9">
-        <v>0</v>
+      <c r="F31" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
@@ -1266,10 +1605,25 @@
       <c r="I31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1288,8 +1642,23 @@
       <c r="I32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1298,8 +1667,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1308,8 +1682,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1318,10 +1697,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1340,8 +1724,23 @@
       <c r="I36" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1350,102 +1749,167 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9">
+      <c r="E38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="9">
         <v>10121</v>
       </c>
-      <c r="F38" s="9">
+      <c r="K38" s="9">
         <v>6430</v>
       </c>
-      <c r="G38" s="9">
+      <c r="L38" s="9">
         <v>3320</v>
       </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
         <v>1156</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>31777</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="11">
+        <v>57311</v>
+      </c>
+      <c r="H39" s="11">
+        <v>50015</v>
+      </c>
+      <c r="I39" s="11">
+        <v>49472</v>
+      </c>
+      <c r="J39" s="11">
         <v>29916</v>
       </c>
-      <c r="F39" s="11">
+      <c r="K39" s="11">
         <v>37745</v>
       </c>
-      <c r="G39" s="11">
+      <c r="L39" s="11">
         <v>36138</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>30138</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>53014</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
+        <v>207406</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="9">
+        <v>184534</v>
+      </c>
+      <c r="H40" s="9">
+        <v>180026</v>
+      </c>
+      <c r="I40" s="9">
+        <v>199216</v>
+      </c>
+      <c r="J40" s="9">
         <v>187096</v>
       </c>
-      <c r="F40" s="9">
+      <c r="K40" s="9">
         <v>186161</v>
       </c>
-      <c r="G40" s="9">
+      <c r="L40" s="9">
         <v>193389</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>197931</v>
       </c>
-      <c r="I40" s="9">
+      <c r="N40" s="9">
         <v>168880</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>239183</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
+        <v>241845</v>
+      </c>
+      <c r="H41" s="13">
+        <v>230041</v>
+      </c>
+      <c r="I41" s="13">
+        <v>248688</v>
+      </c>
+      <c r="J41" s="13">
         <v>227133</v>
       </c>
-      <c r="F41" s="13">
+      <c r="K41" s="13">
         <v>230336</v>
       </c>
-      <c r="G41" s="13">
+      <c r="L41" s="13">
         <v>232847</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>228069</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>223050</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1454,8 +1918,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1464,8 +1933,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1474,10 +1948,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1496,8 +1975,23 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1506,102 +2000,167 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9">
+      <c r="E47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="9">
         <v>10121</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>6430</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>3320</v>
       </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9">
         <v>1156</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>31777</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="11">
+        <v>57311</v>
+      </c>
+      <c r="H48" s="11">
+        <v>50015</v>
+      </c>
+      <c r="I48" s="11">
+        <v>49472</v>
+      </c>
+      <c r="J48" s="11">
         <v>29916</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>37745</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>36138</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>30138</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>53014</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>207406</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="9">
+        <v>184534</v>
+      </c>
+      <c r="H49" s="9">
+        <v>180026</v>
+      </c>
+      <c r="I49" s="9">
+        <v>199216</v>
+      </c>
+      <c r="J49" s="9">
         <v>187096</v>
       </c>
-      <c r="F49" s="9">
+      <c r="K49" s="9">
         <v>186161</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>193389</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>197931</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>168880</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>239183</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <v>241845</v>
+      </c>
+      <c r="H50" s="13">
+        <v>230041</v>
+      </c>
+      <c r="I50" s="13">
+        <v>248688</v>
+      </c>
+      <c r="J50" s="13">
         <v>227133</v>
       </c>
-      <c r="F50" s="13">
+      <c r="K50" s="13">
         <v>230336</v>
       </c>
-      <c r="G50" s="13">
+      <c r="L50" s="13">
         <v>232847</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>228069</v>
       </c>
-      <c r="I50" s="13">
+      <c r="N50" s="13">
         <v>223050</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1610,8 +2169,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1620,8 +2184,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1630,10 +2199,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1652,8 +2226,23 @@
       <c r="I54" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1662,44 +2251,64 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
         <v>0</v>
       </c>
-      <c r="F57" s="11">
-        <v>0</v>
+      <c r="F57" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G57" s="11">
         <v>0</v>
@@ -1710,20 +2319,35 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="11">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
+      <c r="F58" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
@@ -1734,10 +2358,25 @@
       <c r="I58" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="9">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -1756,8 +2395,23 @@
       <c r="I59" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
+      <c r="K59" s="13">
+        <v>0</v>
+      </c>
+      <c r="L59" s="13">
+        <v>0</v>
+      </c>
+      <c r="M59" s="13">
+        <v>0</v>
+      </c>
+      <c r="N59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1766,8 +2420,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1776,8 +2435,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1786,10 +2450,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1808,8 +2477,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1818,47 +2502,67 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9">
+        <v>0</v>
+      </c>
+      <c r="N65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
         <v>0</v>
       </c>
-      <c r="F66" s="11">
-        <v>0</v>
-      </c>
-      <c r="G66" s="11">
-        <v>0</v>
+      <c r="F66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
@@ -1866,20 +2570,35 @@
       <c r="I66" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
         <v>0</v>
       </c>
-      <c r="F67" s="9">
-        <v>0</v>
+      <c r="F67" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G67" s="9">
         <v>0</v>
@@ -1890,10 +2609,25 @@
       <c r="I67" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -1912,8 +2646,23 @@
       <c r="I68" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="13">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="13">
+        <v>0</v>
+      </c>
+      <c r="M68" s="13">
+        <v>0</v>
+      </c>
+      <c r="N68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1922,8 +2671,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1932,8 +2686,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1942,10 +2701,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1964,8 +2728,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1974,102 +2753,167 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9">
+      <c r="E74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="9">
         <v>903672</v>
       </c>
-      <c r="F74" s="9">
+      <c r="K74" s="9">
         <v>603599</v>
       </c>
-      <c r="G74" s="9">
+      <c r="L74" s="9">
         <v>159089</v>
       </c>
-      <c r="H74" s="9">
+      <c r="M74" s="9">
         <v>177644</v>
       </c>
-      <c r="I74" s="9">
+      <c r="N74" s="9">
         <v>90150</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>130252</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="11">
+        <v>218976</v>
+      </c>
+      <c r="H75" s="11">
+        <v>175958</v>
+      </c>
+      <c r="I75" s="11">
+        <v>178479</v>
+      </c>
+      <c r="J75" s="11">
         <v>127038</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>156485</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>336733</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>-58443</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>286380</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>2271055</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="9">
+        <v>6093678</v>
+      </c>
+      <c r="H76" s="9">
+        <v>4434512</v>
+      </c>
+      <c r="I76" s="9">
+        <v>7663133</v>
+      </c>
+      <c r="J76" s="9">
         <v>12416814</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>17895886</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>9856054</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>10060268</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>8787126</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>2401307</v>
+      </c>
+      <c r="F77" s="13">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13">
+        <v>6312654</v>
+      </c>
+      <c r="H77" s="13">
+        <v>4610470</v>
+      </c>
+      <c r="I77" s="13">
+        <v>7841612</v>
+      </c>
+      <c r="J77" s="13">
         <v>13447524</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>18655970</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>10351876</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>10179469</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>9163656</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2078,8 +2922,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2088,8 +2937,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2098,10 +2952,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2120,8 +2979,23 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2130,102 +3004,167 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9">
+      <c r="E83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="9">
         <v>903672</v>
       </c>
-      <c r="F83" s="9">
+      <c r="K83" s="9">
         <v>603599</v>
       </c>
-      <c r="G83" s="9">
+      <c r="L83" s="9">
         <v>159089</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>177644</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>90150</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>130252</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="11">
+        <v>218976</v>
+      </c>
+      <c r="H84" s="11">
+        <v>175958</v>
+      </c>
+      <c r="I84" s="11">
+        <v>178479</v>
+      </c>
+      <c r="J84" s="11">
         <v>127038</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>156485</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>336733</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>-58443</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>286380</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>2271055</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="9">
+        <v>6093678</v>
+      </c>
+      <c r="H85" s="9">
+        <v>4434512</v>
+      </c>
+      <c r="I85" s="9">
+        <v>7663133</v>
+      </c>
+      <c r="J85" s="9">
         <v>12416814</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>17895886</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>9856054</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>10060268</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>8787126</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>2401307</v>
+      </c>
+      <c r="F86" s="13">
+        <v>0</v>
+      </c>
+      <c r="G86" s="13">
+        <v>6312654</v>
+      </c>
+      <c r="H86" s="13">
+        <v>4610470</v>
+      </c>
+      <c r="I86" s="13">
+        <v>7841612</v>
+      </c>
+      <c r="J86" s="13">
         <v>13447524</v>
       </c>
-      <c r="F86" s="13">
+      <c r="K86" s="13">
         <v>18655970</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>10351876</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>10179469</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>9163656</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2234,8 +3173,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2244,8 +3188,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2254,10 +3203,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2276,8 +3230,23 @@
       <c r="I90" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2286,44 +3255,64 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>0</v>
-      </c>
-      <c r="G92" s="9">
-        <v>0</v>
-      </c>
-      <c r="H92" s="9">
-        <v>0</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="9">
+        <v>0</v>
+      </c>
+      <c r="K92" s="9">
+        <v>0</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9">
+        <v>0</v>
+      </c>
+      <c r="N92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
         <v>0</v>
       </c>
-      <c r="F93" s="11">
-        <v>0</v>
+      <c r="F93" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G93" s="11">
         <v>0</v>
@@ -2334,20 +3323,35 @@
       <c r="I93" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11">
+        <v>0</v>
+      </c>
+      <c r="M93" s="11">
+        <v>0</v>
+      </c>
+      <c r="N93" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
         <v>0</v>
       </c>
-      <c r="F94" s="9">
-        <v>0</v>
+      <c r="F94" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G94" s="9">
         <v>0</v>
@@ -2358,10 +3362,25 @@
       <c r="I94" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="9">
+        <v>0</v>
+      </c>
+      <c r="K94" s="9">
+        <v>0</v>
+      </c>
+      <c r="L94" s="9">
+        <v>0</v>
+      </c>
+      <c r="M94" s="9">
+        <v>0</v>
+      </c>
+      <c r="N94" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -2380,8 +3399,23 @@
       <c r="I95" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="13">
+        <v>0</v>
+      </c>
+      <c r="K95" s="13">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2390,8 +3424,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2400,8 +3439,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2410,10 +3454,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2432,8 +3481,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2442,80 +3506,130 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9">
+      <c r="E101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="9">
         <v>89286829</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>93872317</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>47918373</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I101" s="9">
+      <c r="M101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N101" s="9">
         <v>77984429</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>4098939</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="11">
+        <v>3820837</v>
+      </c>
+      <c r="H102" s="11">
+        <v>3518105</v>
+      </c>
+      <c r="I102" s="11">
+        <v>3607677</v>
+      </c>
+      <c r="J102" s="11">
         <v>4246490</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>4145847</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>9317976</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>-1939180</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>5401969</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>10949804</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="9">
+        <v>33021980</v>
+      </c>
+      <c r="H103" s="9">
+        <v>24632620</v>
+      </c>
+      <c r="I103" s="9">
+        <v>38466454</v>
+      </c>
+      <c r="J103" s="9">
         <v>66366005</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>96131230</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>50964915</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>50827147</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>52031774</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2524,8 +3638,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2534,8 +3653,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2544,10 +3668,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2566,8 +3695,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2576,80 +3720,130 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9">
+      <c r="E109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="9">
         <v>89286829</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>93872317</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>47918373</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I109" s="9">
+      <c r="M109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N109" s="9">
         <v>77984429</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>4098939</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="11">
+        <v>3820837</v>
+      </c>
+      <c r="H110" s="11">
+        <v>3518105</v>
+      </c>
+      <c r="I110" s="11">
+        <v>3607677</v>
+      </c>
+      <c r="J110" s="11">
         <v>4246490</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>4145847</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>9317976</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>-1939180</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>5401969</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>10949804</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="9">
+        <v>33021980</v>
+      </c>
+      <c r="H111" s="9">
+        <v>24632620</v>
+      </c>
+      <c r="I111" s="9">
+        <v>38466454</v>
+      </c>
+      <c r="J111" s="9">
         <v>66366005</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>96131230</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>50964915</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>50827147</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>52031774</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2658,8 +3852,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2668,8 +3867,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2678,10 +3882,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2700,8 +3909,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2710,18 +3934,23 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
         <v>0</v>
       </c>
-      <c r="F117" s="9">
-        <v>0</v>
+      <c r="F117" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G117" s="9">
         <v>0</v>
@@ -2732,18 +3961,33 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
         <v>0</v>
       </c>
-      <c r="F118" s="11">
-        <v>0</v>
+      <c r="F118" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G118" s="11">
         <v>0</v>
@@ -2754,18 +3998,33 @@
       <c r="I118" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="11">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
+        <v>0</v>
+      </c>
+      <c r="M118" s="11">
+        <v>0</v>
+      </c>
+      <c r="N118" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
         <v>0</v>
       </c>
-      <c r="F119" s="9">
-        <v>0</v>
+      <c r="F119" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G119" s="9">
         <v>0</v>
@@ -2776,18 +4035,33 @@
       <c r="I119" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
         <v>0</v>
       </c>
-      <c r="F120" s="11">
-        <v>0</v>
+      <c r="F120" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G120" s="11">
         <v>0</v>
@@ -2798,106 +4072,181 @@
       <c r="I120" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="11">
+        <v>0</v>
+      </c>
+      <c r="K120" s="11">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>0</v>
+      </c>
+      <c r="M120" s="11">
+        <v>0</v>
+      </c>
+      <c r="N120" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>27228</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="9">
+        <v>81494</v>
+      </c>
+      <c r="H121" s="9">
+        <v>51920</v>
+      </c>
+      <c r="I121" s="9">
+        <v>141498</v>
+      </c>
+      <c r="J121" s="9">
         <v>75680</v>
       </c>
-      <c r="F121" s="9">
+      <c r="K121" s="9">
         <v>131322</v>
       </c>
-      <c r="G121" s="9">
+      <c r="L121" s="9">
         <v>205476</v>
       </c>
-      <c r="H121" s="9">
+      <c r="M121" s="9">
         <v>105774</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>173582</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
+        <v>574475</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="11">
+        <v>669878</v>
+      </c>
+      <c r="H122" s="11">
+        <v>864464</v>
+      </c>
+      <c r="I122" s="11">
+        <v>1249281</v>
+      </c>
+      <c r="J122" s="11">
         <v>1507370</v>
       </c>
-      <c r="F122" s="11">
+      <c r="K122" s="11">
         <v>7420933</v>
       </c>
-      <c r="G122" s="11">
+      <c r="L122" s="11">
         <v>3152711</v>
       </c>
-      <c r="H122" s="11">
+      <c r="M122" s="11">
         <v>3179201</v>
       </c>
-      <c r="I122" s="11">
+      <c r="N122" s="11">
         <v>2826957</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
+        <v>38803</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="9">
+        <v>39126</v>
+      </c>
+      <c r="H123" s="9">
+        <v>38902</v>
+      </c>
+      <c r="I123" s="9">
+        <v>38903</v>
+      </c>
+      <c r="J123" s="9">
         <v>28233</v>
       </c>
-      <c r="F123" s="9">
+      <c r="K123" s="9">
         <v>26012</v>
       </c>
-      <c r="G123" s="9">
+      <c r="L123" s="9">
         <v>18674</v>
       </c>
-      <c r="H123" s="9">
+      <c r="M123" s="9">
         <v>20558</v>
       </c>
-      <c r="I123" s="9">
+      <c r="N123" s="9">
         <v>21065</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>101021</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="11">
+        <v>132714</v>
+      </c>
+      <c r="H124" s="11">
+        <v>229503</v>
+      </c>
+      <c r="I124" s="11">
+        <v>267837</v>
+      </c>
+      <c r="J124" s="11">
         <v>190367</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>192895</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>303221</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>346170</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>356806</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
         <v>0</v>
       </c>
-      <c r="F125" s="9">
-        <v>0</v>
+      <c r="F125" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G125" s="9">
         <v>0</v>
@@ -2908,52 +4257,97 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
+      </c>
+      <c r="N125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>406114</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="11">
+        <v>2015212</v>
+      </c>
+      <c r="H126" s="11">
+        <v>244591</v>
+      </c>
+      <c r="I126" s="11">
+        <v>727013</v>
+      </c>
+      <c r="J126" s="11">
         <v>1392865</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>1248535</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>1334098</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>3801372</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>454887</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
+        <v>1147641</v>
+      </c>
+      <c r="F127" s="15">
+        <v>0</v>
+      </c>
+      <c r="G127" s="15">
+        <v>2938424</v>
+      </c>
+      <c r="H127" s="15">
+        <v>1429380</v>
+      </c>
+      <c r="I127" s="15">
+        <v>2424532</v>
+      </c>
+      <c r="J127" s="15">
         <v>3194515</v>
       </c>
-      <c r="F127" s="15">
+      <c r="K127" s="15">
         <v>9019697</v>
       </c>
-      <c r="G127" s="15">
+      <c r="L127" s="15">
         <v>5014180</v>
       </c>
-      <c r="H127" s="15">
+      <c r="M127" s="15">
         <v>7453075</v>
       </c>
-      <c r="I127" s="15">
+      <c r="N127" s="15">
         <v>3833297</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2962,8 +4356,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2972,8 +4371,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2982,10 +4386,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -2994,8 +4403,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3004,13 +4418,18 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -3018,13 +4437,18 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -3032,119 +4456,110 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B144" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/shefan/cost/quarterly.xlsx
+++ b/database/industries/methanol/shefan/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5A7809-C590-4BB6-BF16-302EAC1E24BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1A78D-83D2-4C59-A593-01224616134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,40 +61,43 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
+    <t>دستمزد مستقیم تولید</t>
+  </si>
+  <si>
+    <t>سربار تولید</t>
+  </si>
+  <si>
+    <t>جمع</t>
+  </si>
+  <si>
+    <t>هزینه جذب نشده در تولید</t>
+  </si>
+  <si>
+    <t>جمع هزینه های تولید</t>
+  </si>
+  <si>
+    <t>خالص موجودی کالای درجریان ساخت</t>
+  </si>
+  <si>
+    <t>ضایعات غیرعادی</t>
+  </si>
+  <si>
+    <t>بهای تمام شده کالای تولید شده</t>
+  </si>
+  <si>
+    <t>موجودی کالای ساخته شده اول دوره</t>
+  </si>
+  <si>
+    <t>موجودی کالای ساخته شده پایان دوره</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>دستمزد مستقیم تولید</t>
-  </si>
-  <si>
-    <t>سربار تولید</t>
-  </si>
-  <si>
-    <t>جمع</t>
-  </si>
-  <si>
-    <t>هزینه جذب نشده در تولید</t>
-  </si>
-  <si>
-    <t>جمع هزینه های تولید</t>
-  </si>
-  <si>
-    <t>خالص موجودی کالای درجریان ساخت</t>
-  </si>
-  <si>
-    <t>ضایعات غیرعادی</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای تولید شده</t>
-  </si>
-  <si>
-    <t>موجودی کالای ساخته شده اول دوره</t>
-  </si>
-  <si>
-    <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
     <t>بهای تمام شده کالای فروش رفته</t>
@@ -260,6 +260,18 @@
 شود . ٢ -بموجب مصوبه ھیئت وزیران نرخ گاز خوراک طبق نرخھای اعلامی توسط مراجع ذیصلاح و برمبنای محاسبه نرخ تسعیر ارز در ھرماه با استفاده از متوسط نرخ معاملاتی در سامانه نیما
 صورت می پذیرد . نرخ گاز خوراک برای 9 ماهه باقی مانده سالجاری با احتساب ٨ سنت برای ھر متر مکعب گاز خوراک و ١٠ %بالاسری جھت پوشش ھزینه ھای تعرفه و خدمات سازمان منطقه ویژه اقتصادی
 پتروشیمی ، با نرخ 22.000 ریال به ازاء ھر مترمکعب اعمال گردیده است.</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به 1399/12/30</t>
+  </si>
+  <si>
+    <t>مواد اولیه و یوتیلیتی مصرفی عمده ترین عوامل بھای تمام شده می باشد. ھرماھه نرخ گازطبیعی که عمده ترین ماده اولیه این شرکت می باشد از طریق مراجع ذیصلاح تعیین و اعلام می گردد. لازم به ذکر است بموجب تصویب ھیئت وزیران نرخ گاز سوخت ھمانند سال ٩٨ به مبلغ 2.600 ریال برای ھر متر مکعب تعیین گردیده و با احتساب عوارض و ھزینه ھای بالاسری مبلغ 22.000 ریال در پیش بینی ھای 3 ماھه باقی مانده سال ٩٩ لحاظ شده است.</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به</t>
+  </si>
+  <si>
+    <t>١-با توجه به عدم اعلام نرخ یوتیلیتی مصرفی برای سال 1400 ، محاسبات سال آینده برمبنای آخرین نرخھای اعلامی شورای رقابت که مربوط به سال ١٣٩٨است بعلاوه 20% درنظر گرفته می شود . 2- بموجب مصوبه ھیئت وزیران نرخ گاز خوراک طبق نرخھای اعلامی توسط مراجع ذیصلاح و برمبنای محاسبه نرخ تسعیر ارز در ھرماه با استفاده از متوسط نرخ معاملاتی در سامانه نیما صورت می پذیرد . نرخ گاز خوراک برای سال آینده با احتساب 8 سنت برای هر متر مکعب گاز خوراک و 10% بالاسری جهت پوشش هزینه های تعرفه و خدمات سازمان منطقه ویژه اقتصادی پتروشیمی  ، با نرخ 22.000 ریال به ازاء ھر مترمکعب اعمال گردیده است.</t>
   </si>
 </sst>
 </file>
@@ -715,16 +727,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N143"/>
+  <dimension ref="B1:N145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -739,7 +751,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +768,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -773,7 +785,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -788,7 +800,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -805,7 +817,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -822,7 +834,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -837,7 +849,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -874,7 +886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -889,165 +901,165 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2401307</v>
-      </c>
-      <c r="F10" s="9" t="s">
+        <v>5948560</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6312654</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4610470</v>
+      </c>
+      <c r="H10" s="9">
+        <v>7841612</v>
+      </c>
+      <c r="I10" s="9">
+        <v>13447524</v>
+      </c>
+      <c r="J10" s="9">
+        <v>18655970</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10351876</v>
+      </c>
+      <c r="L10" s="9">
+        <v>10179469</v>
+      </c>
+      <c r="M10" s="9">
+        <v>9163656</v>
+      </c>
+      <c r="N10" s="9">
+        <v>7302536</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="G10" s="9">
-        <v>6312654</v>
-      </c>
-      <c r="H10" s="9">
-        <v>4610470</v>
-      </c>
-      <c r="I10" s="9">
-        <v>7841612</v>
-      </c>
-      <c r="J10" s="9">
-        <v>13447524</v>
-      </c>
-      <c r="K10" s="9">
-        <v>18655970</v>
-      </c>
-      <c r="L10" s="9">
-        <v>10351876</v>
-      </c>
-      <c r="M10" s="9">
-        <v>10179469</v>
-      </c>
-      <c r="N10" s="9">
-        <v>9163656</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>49989</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>15</v>
+        <v>74376</v>
+      </c>
+      <c r="F11" s="11">
+        <v>64142</v>
       </c>
       <c r="G11" s="11">
-        <v>64142</v>
+        <v>101743</v>
       </c>
       <c r="H11" s="11">
-        <v>101743</v>
+        <v>91046</v>
       </c>
       <c r="I11" s="11">
-        <v>91046</v>
+        <v>84131</v>
       </c>
       <c r="J11" s="11">
-        <v>84131</v>
+        <v>78349</v>
       </c>
       <c r="K11" s="11">
-        <v>78349</v>
+        <v>154887</v>
       </c>
       <c r="L11" s="11">
-        <v>154887</v>
+        <v>145189</v>
       </c>
       <c r="M11" s="11">
-        <v>145189</v>
+        <v>149747</v>
       </c>
       <c r="N11" s="11">
-        <v>149747</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189927</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1147641</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
+        <v>1765972</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2938424</v>
       </c>
       <c r="G12" s="9">
-        <v>2938424</v>
+        <v>1429380</v>
       </c>
       <c r="H12" s="9">
-        <v>1429380</v>
+        <v>2424532</v>
       </c>
       <c r="I12" s="9">
-        <v>2424532</v>
+        <v>3194515</v>
       </c>
       <c r="J12" s="9">
-        <v>3194515</v>
+        <v>9019697</v>
       </c>
       <c r="K12" s="9">
-        <v>9019697</v>
+        <v>5014180</v>
       </c>
       <c r="L12" s="9">
-        <v>5014180</v>
+        <v>7453075</v>
       </c>
       <c r="M12" s="9">
-        <v>7453075</v>
+        <v>3833297</v>
       </c>
       <c r="N12" s="9">
-        <v>3833297</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5915177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>3598937</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>15</v>
+        <v>7788908</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9315220</v>
       </c>
       <c r="G13" s="13">
-        <v>9315220</v>
+        <v>6141593</v>
       </c>
       <c r="H13" s="13">
-        <v>6141593</v>
+        <v>10357190</v>
       </c>
       <c r="I13" s="13">
-        <v>10357190</v>
+        <v>16726170</v>
       </c>
       <c r="J13" s="13">
-        <v>16726170</v>
+        <v>27754016</v>
       </c>
       <c r="K13" s="13">
-        <v>27754016</v>
+        <v>15520943</v>
       </c>
       <c r="L13" s="13">
-        <v>15520943</v>
+        <v>17777733</v>
       </c>
       <c r="M13" s="13">
-        <v>17777733</v>
+        <v>13146700</v>
       </c>
       <c r="N13" s="13">
-        <v>13146700</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13407640</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>15</v>
+      <c r="F14" s="9">
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -1074,54 +1086,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>3598937</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>15</v>
+        <v>7788908</v>
+      </c>
+      <c r="F15" s="13">
+        <v>9315220</v>
       </c>
       <c r="G15" s="13">
-        <v>9315220</v>
+        <v>6141593</v>
       </c>
       <c r="H15" s="13">
-        <v>6141593</v>
+        <v>10357190</v>
       </c>
       <c r="I15" s="13">
-        <v>10357190</v>
+        <v>16726170</v>
       </c>
       <c r="J15" s="13">
-        <v>16726170</v>
+        <v>27754016</v>
       </c>
       <c r="K15" s="13">
-        <v>27754016</v>
+        <v>15520943</v>
       </c>
       <c r="L15" s="13">
-        <v>15520943</v>
+        <v>17777733</v>
       </c>
       <c r="M15" s="13">
-        <v>17777733</v>
+        <v>13146700</v>
       </c>
       <c r="N15" s="13">
-        <v>13146700</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13407640</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>15</v>
+      <c r="F16" s="9">
+        <v>0</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -1148,192 +1160,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-1088</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>15</v>
+        <v>-1346</v>
+      </c>
+      <c r="F17" s="11">
+        <v>141</v>
       </c>
       <c r="G17" s="11">
-        <v>141</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>-1</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
       <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
         <v>-1</v>
       </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
       <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11">
         <v>-1</v>
       </c>
-      <c r="N17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>3597849</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>15</v>
+        <v>7787562</v>
+      </c>
+      <c r="F18" s="15">
+        <v>9315361</v>
       </c>
       <c r="G18" s="15">
-        <v>9315361</v>
+        <v>6141592</v>
       </c>
       <c r="H18" s="15">
-        <v>6141592</v>
+        <v>10357190</v>
       </c>
       <c r="I18" s="15">
-        <v>10357190</v>
+        <v>16726170</v>
       </c>
       <c r="J18" s="15">
-        <v>16726170</v>
+        <v>27754015</v>
       </c>
       <c r="K18" s="15">
-        <v>27754015</v>
+        <v>15520943</v>
       </c>
       <c r="L18" s="15">
-        <v>15520943</v>
+        <v>17777732</v>
       </c>
       <c r="M18" s="15">
-        <v>17777732</v>
+        <v>13146701</v>
       </c>
       <c r="N18" s="15">
-        <v>13146701</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13407639</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>15</v>
+        <v>282093</v>
+      </c>
+      <c r="F19" s="11">
+        <v>196810</v>
       </c>
       <c r="G19" s="11">
-        <v>112535</v>
+        <v>492652</v>
       </c>
       <c r="H19" s="11">
-        <v>492652</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>1267276</v>
       </c>
       <c r="J19" s="11">
-        <v>374535</v>
+        <v>1350978</v>
       </c>
       <c r="K19" s="11">
-        <v>83702</v>
+        <v>2672434</v>
       </c>
       <c r="L19" s="11">
-        <v>2672434</v>
+        <v>3870001</v>
       </c>
       <c r="M19" s="11">
-        <v>3870001</v>
+        <v>248598</v>
       </c>
       <c r="N19" s="11">
-        <v>248598</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3684012</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>282093</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>15</v>
+      <c r="E20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-492652</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-892741</v>
       </c>
       <c r="H20" s="9">
-        <v>-892741</v>
+        <v>-374535</v>
       </c>
       <c r="I20" s="9">
-        <v>-374535</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>15</v>
+        <v>-1350978</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-2672434</v>
       </c>
       <c r="K20" s="9">
-        <v>-2672434</v>
+        <v>-3870001</v>
       </c>
       <c r="L20" s="9">
-        <v>-3870001</v>
+        <v>-248598</v>
       </c>
       <c r="M20" s="9">
-        <v>-248598</v>
+        <v>-3684012</v>
       </c>
       <c r="N20" s="9">
-        <v>-3684012</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1834476</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>3879942</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>15</v>
+        <v>7900097</v>
+      </c>
+      <c r="F21" s="13">
+        <v>9019519</v>
       </c>
       <c r="G21" s="13">
-        <v>9019519</v>
+        <v>5741503</v>
       </c>
       <c r="H21" s="13">
-        <v>5741503</v>
+        <v>9982655</v>
       </c>
       <c r="I21" s="13">
-        <v>9982655</v>
+        <v>16642468</v>
       </c>
       <c r="J21" s="13">
-        <v>16642468</v>
+        <v>26432559</v>
       </c>
       <c r="K21" s="13">
-        <v>26432559</v>
+        <v>14323376</v>
       </c>
       <c r="L21" s="13">
-        <v>14323376</v>
+        <v>21399135</v>
       </c>
       <c r="M21" s="13">
-        <v>21399135</v>
+        <v>9711287</v>
       </c>
       <c r="N21" s="13">
-        <v>9711287</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15257175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1342,8 +1354,8 @@
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>15</v>
+      <c r="F22" s="9">
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -1370,44 +1382,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>3879942</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>15</v>
+        <v>7900097</v>
+      </c>
+      <c r="F23" s="13">
+        <v>9019519</v>
       </c>
       <c r="G23" s="13">
-        <v>9019519</v>
+        <v>5741503</v>
       </c>
       <c r="H23" s="13">
-        <v>5741503</v>
+        <v>9982655</v>
       </c>
       <c r="I23" s="13">
-        <v>9982655</v>
+        <v>16642468</v>
       </c>
       <c r="J23" s="13">
-        <v>16642468</v>
+        <v>26432559</v>
       </c>
       <c r="K23" s="13">
-        <v>26432559</v>
+        <v>14323376</v>
       </c>
       <c r="L23" s="13">
-        <v>14323376</v>
+        <v>21399135</v>
       </c>
       <c r="M23" s="13">
-        <v>21399135</v>
+        <v>9711287</v>
       </c>
       <c r="N23" s="13">
-        <v>9711287</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15257175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1422,7 +1434,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1437,7 +1449,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1452,7 +1464,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1504,7 +1516,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1513,22 +1525,22 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
       </c>
       <c r="K29" s="9">
         <v>0</v>
@@ -1543,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1555,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
@@ -1582,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
@@ -1621,9 +1633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1658,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1673,7 +1685,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1688,7 +1700,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1703,7 +1715,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1755,7 +1767,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -1764,37 +1776,37 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I38" s="9">
+        <v>10121</v>
       </c>
       <c r="J38" s="9">
-        <v>10121</v>
+        <v>6430</v>
       </c>
       <c r="K38" s="9">
-        <v>6430</v>
+        <v>3320</v>
       </c>
       <c r="L38" s="9">
-        <v>3320</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9">
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="N38" s="9">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>32</v>
       </c>
@@ -1803,37 +1815,37 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>31777</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>15</v>
+        <v>54443</v>
+      </c>
+      <c r="F39" s="11">
+        <v>57311</v>
       </c>
       <c r="G39" s="11">
-        <v>57311</v>
+        <v>50015</v>
       </c>
       <c r="H39" s="11">
-        <v>50015</v>
+        <v>49472</v>
       </c>
       <c r="I39" s="11">
-        <v>49472</v>
+        <v>29916</v>
       </c>
       <c r="J39" s="11">
-        <v>29916</v>
+        <v>37745</v>
       </c>
       <c r="K39" s="11">
-        <v>37745</v>
+        <v>36138</v>
       </c>
       <c r="L39" s="11">
-        <v>36138</v>
+        <v>30138</v>
       </c>
       <c r="M39" s="11">
-        <v>30138</v>
+        <v>53014</v>
       </c>
       <c r="N39" s="11">
-        <v>53014</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
@@ -1842,74 +1854,74 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>207406</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>15</v>
+        <v>191468</v>
+      </c>
+      <c r="F40" s="9">
+        <v>184534</v>
       </c>
       <c r="G40" s="9">
-        <v>184534</v>
+        <v>180026</v>
       </c>
       <c r="H40" s="9">
-        <v>180026</v>
+        <v>199216</v>
       </c>
       <c r="I40" s="9">
-        <v>199216</v>
+        <v>187096</v>
       </c>
       <c r="J40" s="9">
-        <v>187096</v>
+        <v>186161</v>
       </c>
       <c r="K40" s="9">
-        <v>186161</v>
+        <v>193389</v>
       </c>
       <c r="L40" s="9">
-        <v>193389</v>
+        <v>197931</v>
       </c>
       <c r="M40" s="9">
-        <v>197931</v>
+        <v>168880</v>
       </c>
       <c r="N40" s="9">
-        <v>168880</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>128962</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>239183</v>
+        <v>245911</v>
       </c>
       <c r="F41" s="13">
-        <v>0</v>
+        <v>241845</v>
       </c>
       <c r="G41" s="13">
-        <v>241845</v>
+        <v>230041</v>
       </c>
       <c r="H41" s="13">
-        <v>230041</v>
+        <v>248688</v>
       </c>
       <c r="I41" s="13">
-        <v>248688</v>
+        <v>227133</v>
       </c>
       <c r="J41" s="13">
-        <v>227133</v>
+        <v>230336</v>
       </c>
       <c r="K41" s="13">
-        <v>230336</v>
+        <v>232847</v>
       </c>
       <c r="L41" s="13">
-        <v>232847</v>
+        <v>228069</v>
       </c>
       <c r="M41" s="13">
-        <v>228069</v>
+        <v>223050</v>
       </c>
       <c r="N41" s="13">
-        <v>223050</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>171447</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1924,7 +1936,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1939,7 +1951,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1954,7 +1966,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2006,7 +2018,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>30</v>
       </c>
@@ -2015,37 +2027,37 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I47" s="9">
+        <v>10121</v>
       </c>
       <c r="J47" s="9">
-        <v>10121</v>
+        <v>6430</v>
       </c>
       <c r="K47" s="9">
-        <v>6430</v>
+        <v>3320</v>
       </c>
       <c r="L47" s="9">
-        <v>3320</v>
+        <v>0</v>
       </c>
       <c r="M47" s="9">
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="N47" s="9">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>32</v>
       </c>
@@ -2054,37 +2066,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>31777</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>15</v>
+        <v>54443</v>
+      </c>
+      <c r="F48" s="11">
+        <v>57311</v>
       </c>
       <c r="G48" s="11">
-        <v>57311</v>
+        <v>50015</v>
       </c>
       <c r="H48" s="11">
-        <v>50015</v>
+        <v>49472</v>
       </c>
       <c r="I48" s="11">
-        <v>49472</v>
+        <v>29916</v>
       </c>
       <c r="J48" s="11">
-        <v>29916</v>
+        <v>37745</v>
       </c>
       <c r="K48" s="11">
-        <v>37745</v>
+        <v>36138</v>
       </c>
       <c r="L48" s="11">
-        <v>36138</v>
+        <v>30138</v>
       </c>
       <c r="M48" s="11">
-        <v>30138</v>
+        <v>53014</v>
       </c>
       <c r="N48" s="11">
-        <v>53014</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41912</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -2093,74 +2105,74 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>207406</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>15</v>
+        <v>191468</v>
+      </c>
+      <c r="F49" s="9">
+        <v>184534</v>
       </c>
       <c r="G49" s="9">
-        <v>184534</v>
+        <v>180026</v>
       </c>
       <c r="H49" s="9">
-        <v>180026</v>
+        <v>199216</v>
       </c>
       <c r="I49" s="9">
-        <v>199216</v>
+        <v>187096</v>
       </c>
       <c r="J49" s="9">
-        <v>187096</v>
+        <v>186161</v>
       </c>
       <c r="K49" s="9">
-        <v>186161</v>
+        <v>193389</v>
       </c>
       <c r="L49" s="9">
-        <v>193389</v>
+        <v>197931</v>
       </c>
       <c r="M49" s="9">
-        <v>197931</v>
+        <v>168880</v>
       </c>
       <c r="N49" s="9">
-        <v>168880</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>128962</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>239183</v>
+        <v>245911</v>
       </c>
       <c r="F50" s="13">
-        <v>0</v>
+        <v>241845</v>
       </c>
       <c r="G50" s="13">
-        <v>241845</v>
+        <v>230041</v>
       </c>
       <c r="H50" s="13">
-        <v>230041</v>
+        <v>248688</v>
       </c>
       <c r="I50" s="13">
-        <v>248688</v>
+        <v>227133</v>
       </c>
       <c r="J50" s="13">
-        <v>227133</v>
+        <v>230336</v>
       </c>
       <c r="K50" s="13">
-        <v>230336</v>
+        <v>232847</v>
       </c>
       <c r="L50" s="13">
-        <v>232847</v>
+        <v>228069</v>
       </c>
       <c r="M50" s="13">
-        <v>228069</v>
+        <v>223050</v>
       </c>
       <c r="N50" s="13">
-        <v>223050</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>171447</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2175,7 +2187,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2190,7 +2202,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2205,7 +2217,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>37</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2257,7 +2269,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>30</v>
       </c>
@@ -2266,19 +2278,19 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
       </c>
       <c r="J56" s="9">
         <v>0</v>
@@ -2296,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>32</v>
       </c>
@@ -2307,8 +2319,8 @@
       <c r="E57" s="11">
         <v>0</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>15</v>
+      <c r="F57" s="11">
+        <v>0</v>
       </c>
       <c r="G57" s="11">
         <v>0</v>
@@ -2335,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>33</v>
       </c>
@@ -2346,8 +2358,8 @@
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>15</v>
+      <c r="F58" s="9">
+        <v>0</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
@@ -2374,9 +2386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2411,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2426,7 +2438,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2441,7 +2453,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2456,7 +2468,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>38</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2508,7 +2520,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>30</v>
       </c>
@@ -2517,22 +2529,22 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0</v>
       </c>
       <c r="K65" s="9">
         <v>0</v>
@@ -2547,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>32</v>
       </c>
@@ -2559,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
@@ -2586,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G67" s="9">
         <v>0</v>
@@ -2625,9 +2637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -2662,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2677,7 +2689,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2692,7 +2704,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2707,7 +2719,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>40</v>
       </c>
@@ -2744,7 +2756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2759,7 +2771,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>30</v>
       </c>
@@ -2768,37 +2780,37 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I74" s="9">
+        <v>903672</v>
       </c>
       <c r="J74" s="9">
-        <v>903672</v>
+        <v>603599</v>
       </c>
       <c r="K74" s="9">
-        <v>603599</v>
+        <v>159089</v>
       </c>
       <c r="L74" s="9">
-        <v>159089</v>
+        <v>177644</v>
       </c>
       <c r="M74" s="9">
-        <v>177644</v>
+        <v>90150</v>
       </c>
       <c r="N74" s="9">
-        <v>90150</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39296</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>32</v>
       </c>
@@ -2807,37 +2819,37 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>130252</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>15</v>
+        <v>217950</v>
+      </c>
+      <c r="F75" s="11">
+        <v>218976</v>
       </c>
       <c r="G75" s="11">
-        <v>218976</v>
+        <v>175958</v>
       </c>
       <c r="H75" s="11">
-        <v>175958</v>
+        <v>178479</v>
       </c>
       <c r="I75" s="11">
-        <v>178479</v>
+        <v>127038</v>
       </c>
       <c r="J75" s="11">
-        <v>127038</v>
+        <v>156485</v>
       </c>
       <c r="K75" s="11">
-        <v>156485</v>
+        <v>336733</v>
       </c>
       <c r="L75" s="11">
-        <v>336733</v>
+        <v>-58443</v>
       </c>
       <c r="M75" s="11">
-        <v>-58443</v>
+        <v>286380</v>
       </c>
       <c r="N75" s="11">
-        <v>286380</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239502</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>33</v>
       </c>
@@ -2846,74 +2858,74 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>2271055</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>15</v>
+        <v>5730610</v>
+      </c>
+      <c r="F76" s="9">
+        <v>6093678</v>
       </c>
       <c r="G76" s="9">
-        <v>6093678</v>
+        <v>4434512</v>
       </c>
       <c r="H76" s="9">
-        <v>4434512</v>
+        <v>7663133</v>
       </c>
       <c r="I76" s="9">
-        <v>7663133</v>
+        <v>12416814</v>
       </c>
       <c r="J76" s="9">
-        <v>12416814</v>
+        <v>17895886</v>
       </c>
       <c r="K76" s="9">
-        <v>17895886</v>
+        <v>9856054</v>
       </c>
       <c r="L76" s="9">
-        <v>9856054</v>
+        <v>10060268</v>
       </c>
       <c r="M76" s="9">
-        <v>10060268</v>
+        <v>8787126</v>
       </c>
       <c r="N76" s="9">
-        <v>8787126</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7023738</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>2401307</v>
+        <v>5948560</v>
       </c>
       <c r="F77" s="13">
-        <v>0</v>
+        <v>6312654</v>
       </c>
       <c r="G77" s="13">
-        <v>6312654</v>
+        <v>4610470</v>
       </c>
       <c r="H77" s="13">
-        <v>4610470</v>
+        <v>7841612</v>
       </c>
       <c r="I77" s="13">
-        <v>7841612</v>
+        <v>13447524</v>
       </c>
       <c r="J77" s="13">
-        <v>13447524</v>
+        <v>18655970</v>
       </c>
       <c r="K77" s="13">
-        <v>18655970</v>
+        <v>10351876</v>
       </c>
       <c r="L77" s="13">
-        <v>10351876</v>
+        <v>10179469</v>
       </c>
       <c r="M77" s="13">
-        <v>10179469</v>
+        <v>9163656</v>
       </c>
       <c r="N77" s="13">
-        <v>9163656</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7302536</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2928,7 +2940,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2943,7 +2955,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2958,7 +2970,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>41</v>
       </c>
@@ -2995,7 +3007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3010,7 +3022,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>30</v>
       </c>
@@ -3019,37 +3031,37 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I83" s="9">
+        <v>903672</v>
       </c>
       <c r="J83" s="9">
-        <v>903672</v>
+        <v>603599</v>
       </c>
       <c r="K83" s="9">
-        <v>603599</v>
+        <v>159089</v>
       </c>
       <c r="L83" s="9">
-        <v>159089</v>
+        <v>177644</v>
       </c>
       <c r="M83" s="9">
-        <v>177644</v>
+        <v>90150</v>
       </c>
       <c r="N83" s="9">
-        <v>90150</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39296</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>32</v>
       </c>
@@ -3058,37 +3070,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>130252</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>15</v>
+        <v>217950</v>
+      </c>
+      <c r="F84" s="11">
+        <v>218976</v>
       </c>
       <c r="G84" s="11">
-        <v>218976</v>
+        <v>175958</v>
       </c>
       <c r="H84" s="11">
-        <v>175958</v>
+        <v>178479</v>
       </c>
       <c r="I84" s="11">
-        <v>178479</v>
+        <v>127038</v>
       </c>
       <c r="J84" s="11">
-        <v>127038</v>
+        <v>156485</v>
       </c>
       <c r="K84" s="11">
-        <v>156485</v>
+        <v>336733</v>
       </c>
       <c r="L84" s="11">
-        <v>336733</v>
+        <v>-58443</v>
       </c>
       <c r="M84" s="11">
-        <v>-58443</v>
+        <v>286380</v>
       </c>
       <c r="N84" s="11">
-        <v>286380</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239502</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>33</v>
       </c>
@@ -3097,74 +3109,74 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>2271055</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>15</v>
+        <v>5730610</v>
+      </c>
+      <c r="F85" s="9">
+        <v>6093678</v>
       </c>
       <c r="G85" s="9">
-        <v>6093678</v>
+        <v>4434512</v>
       </c>
       <c r="H85" s="9">
-        <v>4434512</v>
+        <v>7663133</v>
       </c>
       <c r="I85" s="9">
-        <v>7663133</v>
+        <v>12416814</v>
       </c>
       <c r="J85" s="9">
-        <v>12416814</v>
+        <v>17895886</v>
       </c>
       <c r="K85" s="9">
-        <v>17895886</v>
+        <v>9856054</v>
       </c>
       <c r="L85" s="9">
-        <v>9856054</v>
+        <v>10060268</v>
       </c>
       <c r="M85" s="9">
-        <v>10060268</v>
+        <v>8787126</v>
       </c>
       <c r="N85" s="9">
-        <v>8787126</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7023738</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>2401307</v>
+        <v>5948560</v>
       </c>
       <c r="F86" s="13">
-        <v>0</v>
+        <v>6312654</v>
       </c>
       <c r="G86" s="13">
-        <v>6312654</v>
+        <v>4610470</v>
       </c>
       <c r="H86" s="13">
-        <v>4610470</v>
+        <v>7841612</v>
       </c>
       <c r="I86" s="13">
-        <v>7841612</v>
+        <v>13447524</v>
       </c>
       <c r="J86" s="13">
-        <v>13447524</v>
+        <v>18655970</v>
       </c>
       <c r="K86" s="13">
-        <v>18655970</v>
+        <v>10351876</v>
       </c>
       <c r="L86" s="13">
-        <v>10351876</v>
+        <v>10179469</v>
       </c>
       <c r="M86" s="13">
-        <v>10179469</v>
+        <v>9163656</v>
       </c>
       <c r="N86" s="13">
-        <v>9163656</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7302536</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3179,7 +3191,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3194,7 +3206,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3209,7 +3221,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>42</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3261,7 +3273,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>30</v>
       </c>
@@ -3270,19 +3282,19 @@
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0</v>
       </c>
       <c r="J92" s="9">
         <v>0</v>
@@ -3300,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>32</v>
       </c>
@@ -3311,8 +3323,8 @@
       <c r="E93" s="11">
         <v>0</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>15</v>
+      <c r="F93" s="11">
+        <v>0</v>
       </c>
       <c r="G93" s="11">
         <v>0</v>
@@ -3339,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>33</v>
       </c>
@@ -3350,8 +3362,8 @@
       <c r="E94" s="9">
         <v>0</v>
       </c>
-      <c r="F94" s="9" t="s">
-        <v>15</v>
+      <c r="F94" s="9">
+        <v>0</v>
       </c>
       <c r="G94" s="9">
         <v>0</v>
@@ -3378,9 +3390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -3415,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3430,7 +3442,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3445,7 +3457,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3460,7 +3472,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>43</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3512,7 +3524,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>30</v>
       </c>
@@ -3521,37 +3533,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I101" s="9">
+        <v>89286829</v>
       </c>
       <c r="J101" s="9">
-        <v>89286829</v>
+        <v>93872317</v>
       </c>
       <c r="K101" s="9">
-        <v>93872317</v>
-      </c>
-      <c r="L101" s="9">
         <v>47918373</v>
       </c>
-      <c r="M101" s="9" t="s">
-        <v>15</v>
+      <c r="L101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="9">
+        <v>77984429</v>
       </c>
       <c r="N101" s="9">
-        <v>77984429</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68579407</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>32</v>
       </c>
@@ -3560,37 +3572,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>4098939</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>15</v>
+        <v>4003269</v>
+      </c>
+      <c r="F102" s="11">
+        <v>3820837</v>
       </c>
       <c r="G102" s="11">
-        <v>3820837</v>
+        <v>3518105</v>
       </c>
       <c r="H102" s="11">
-        <v>3518105</v>
+        <v>3607677</v>
       </c>
       <c r="I102" s="11">
-        <v>3607677</v>
+        <v>4246490</v>
       </c>
       <c r="J102" s="11">
-        <v>4246490</v>
+        <v>4145847</v>
       </c>
       <c r="K102" s="11">
-        <v>4145847</v>
+        <v>9317976</v>
       </c>
       <c r="L102" s="11">
-        <v>9317976</v>
+        <v>-1939180</v>
       </c>
       <c r="M102" s="11">
-        <v>-1939180</v>
+        <v>5401969</v>
       </c>
       <c r="N102" s="11">
-        <v>5401969</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5714402</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>33</v>
       </c>
@@ -3599,37 +3611,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>10949804</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>15</v>
+        <v>29929858</v>
+      </c>
+      <c r="F103" s="9">
+        <v>33021980</v>
       </c>
       <c r="G103" s="9">
-        <v>33021980</v>
+        <v>24632620</v>
       </c>
       <c r="H103" s="9">
-        <v>24632620</v>
+        <v>38466454</v>
       </c>
       <c r="I103" s="9">
-        <v>38466454</v>
+        <v>66366005</v>
       </c>
       <c r="J103" s="9">
-        <v>66366005</v>
+        <v>96131230</v>
       </c>
       <c r="K103" s="9">
-        <v>96131230</v>
+        <v>50964915</v>
       </c>
       <c r="L103" s="9">
-        <v>50964915</v>
+        <v>50827147</v>
       </c>
       <c r="M103" s="9">
-        <v>50827147</v>
+        <v>52031774</v>
       </c>
       <c r="N103" s="9">
-        <v>52031774</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54463625</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3644,7 +3656,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3659,7 +3671,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3674,7 +3686,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>46</v>
       </c>
@@ -3711,7 +3723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3726,7 +3738,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>30</v>
       </c>
@@ -3735,37 +3747,37 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I109" s="9">
+        <v>89286829</v>
       </c>
       <c r="J109" s="9">
-        <v>89286829</v>
+        <v>93872317</v>
       </c>
       <c r="K109" s="9">
-        <v>93872317</v>
-      </c>
-      <c r="L109" s="9">
         <v>47918373</v>
       </c>
-      <c r="M109" s="9" t="s">
-        <v>15</v>
+      <c r="L109" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M109" s="9">
+        <v>77984429</v>
       </c>
       <c r="N109" s="9">
-        <v>77984429</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68579407</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>32</v>
       </c>
@@ -3774,37 +3786,37 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>4098939</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>15</v>
+        <v>4003269</v>
+      </c>
+      <c r="F110" s="11">
+        <v>3820837</v>
       </c>
       <c r="G110" s="11">
-        <v>3820837</v>
+        <v>3518105</v>
       </c>
       <c r="H110" s="11">
-        <v>3518105</v>
+        <v>3607677</v>
       </c>
       <c r="I110" s="11">
-        <v>3607677</v>
+        <v>4246490</v>
       </c>
       <c r="J110" s="11">
-        <v>4246490</v>
+        <v>4145847</v>
       </c>
       <c r="K110" s="11">
-        <v>4145847</v>
+        <v>9317976</v>
       </c>
       <c r="L110" s="11">
-        <v>9317976</v>
+        <v>-1939180</v>
       </c>
       <c r="M110" s="11">
-        <v>-1939180</v>
+        <v>5401969</v>
       </c>
       <c r="N110" s="11">
-        <v>5401969</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5714402</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>33</v>
       </c>
@@ -3813,37 +3825,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>10949804</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>15</v>
+        <v>29929858</v>
+      </c>
+      <c r="F111" s="9">
+        <v>33021980</v>
       </c>
       <c r="G111" s="9">
-        <v>33021980</v>
+        <v>24632620</v>
       </c>
       <c r="H111" s="9">
-        <v>24632620</v>
+        <v>38466454</v>
       </c>
       <c r="I111" s="9">
-        <v>38466454</v>
+        <v>66366005</v>
       </c>
       <c r="J111" s="9">
-        <v>66366005</v>
+        <v>96131230</v>
       </c>
       <c r="K111" s="9">
-        <v>96131230</v>
+        <v>50964915</v>
       </c>
       <c r="L111" s="9">
-        <v>50964915</v>
+        <v>50827147</v>
       </c>
       <c r="M111" s="9">
-        <v>50827147</v>
+        <v>52031774</v>
       </c>
       <c r="N111" s="9">
-        <v>52031774</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54463625</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3858,7 +3870,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3873,7 +3885,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3888,7 +3900,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>47</v>
       </c>
@@ -3925,7 +3937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3940,7 +3952,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>48</v>
       </c>
@@ -3949,8 +3961,8 @@
       <c r="E117" s="9">
         <v>0</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>15</v>
+      <c r="F117" s="9">
+        <v>0</v>
       </c>
       <c r="G117" s="9">
         <v>0</v>
@@ -3977,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>49</v>
       </c>
@@ -3986,8 +3998,8 @@
       <c r="E118" s="11">
         <v>0</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>15</v>
+      <c r="F118" s="11">
+        <v>0</v>
       </c>
       <c r="G118" s="11">
         <v>0</v>
@@ -4014,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>50</v>
       </c>
@@ -4023,8 +4035,8 @@
       <c r="E119" s="9">
         <v>0</v>
       </c>
-      <c r="F119" s="9" t="s">
-        <v>15</v>
+      <c r="F119" s="9">
+        <v>0</v>
       </c>
       <c r="G119" s="9">
         <v>0</v>
@@ -4051,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>51</v>
       </c>
@@ -4060,8 +4072,8 @@
       <c r="E120" s="11">
         <v>0</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>15</v>
+      <c r="F120" s="11">
+        <v>0</v>
       </c>
       <c r="G120" s="11">
         <v>0</v>
@@ -4088,155 +4100,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>27228</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>15</v>
+        <v>34494</v>
+      </c>
+      <c r="F121" s="9">
+        <v>81494</v>
       </c>
       <c r="G121" s="9">
-        <v>81494</v>
+        <v>51920</v>
       </c>
       <c r="H121" s="9">
-        <v>51920</v>
+        <v>141498</v>
       </c>
       <c r="I121" s="9">
-        <v>141498</v>
+        <v>75680</v>
       </c>
       <c r="J121" s="9">
-        <v>75680</v>
+        <v>131322</v>
       </c>
       <c r="K121" s="9">
-        <v>131322</v>
+        <v>205476</v>
       </c>
       <c r="L121" s="9">
-        <v>205476</v>
+        <v>105774</v>
       </c>
       <c r="M121" s="9">
-        <v>105774</v>
+        <v>173582</v>
       </c>
       <c r="N121" s="9">
-        <v>173582</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116651</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>574475</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>15</v>
+        <v>593712</v>
+      </c>
+      <c r="F122" s="11">
+        <v>669878</v>
       </c>
       <c r="G122" s="11">
-        <v>669878</v>
+        <v>864464</v>
       </c>
       <c r="H122" s="11">
-        <v>864464</v>
+        <v>1249281</v>
       </c>
       <c r="I122" s="11">
-        <v>1249281</v>
+        <v>1507370</v>
       </c>
       <c r="J122" s="11">
-        <v>1507370</v>
+        <v>7420933</v>
       </c>
       <c r="K122" s="11">
-        <v>7420933</v>
+        <v>3152711</v>
       </c>
       <c r="L122" s="11">
-        <v>3152711</v>
+        <v>3179201</v>
       </c>
       <c r="M122" s="11">
-        <v>3179201</v>
+        <v>2826957</v>
       </c>
       <c r="N122" s="11">
-        <v>2826957</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2138005</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>38803</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>15</v>
+        <v>38635</v>
+      </c>
+      <c r="F123" s="9">
+        <v>39126</v>
       </c>
       <c r="G123" s="9">
-        <v>39126</v>
+        <v>38902</v>
       </c>
       <c r="H123" s="9">
-        <v>38902</v>
+        <v>38903</v>
       </c>
       <c r="I123" s="9">
-        <v>38903</v>
+        <v>28233</v>
       </c>
       <c r="J123" s="9">
-        <v>28233</v>
+        <v>26012</v>
       </c>
       <c r="K123" s="9">
-        <v>26012</v>
+        <v>18674</v>
       </c>
       <c r="L123" s="9">
-        <v>18674</v>
+        <v>20558</v>
       </c>
       <c r="M123" s="9">
-        <v>20558</v>
+        <v>21065</v>
       </c>
       <c r="N123" s="9">
-        <v>21065</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30261</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>101021</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>15</v>
+        <v>170113</v>
+      </c>
+      <c r="F124" s="11">
+        <v>132714</v>
       </c>
       <c r="G124" s="11">
-        <v>132714</v>
+        <v>229503</v>
       </c>
       <c r="H124" s="11">
-        <v>229503</v>
+        <v>267837</v>
       </c>
       <c r="I124" s="11">
-        <v>267837</v>
+        <v>190367</v>
       </c>
       <c r="J124" s="11">
-        <v>190367</v>
+        <v>192895</v>
       </c>
       <c r="K124" s="11">
-        <v>192895</v>
+        <v>303221</v>
       </c>
       <c r="L124" s="11">
-        <v>303221</v>
+        <v>346170</v>
       </c>
       <c r="M124" s="11">
-        <v>346170</v>
+        <v>356806</v>
       </c>
       <c r="N124" s="11">
-        <v>356806</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>353659</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>56</v>
       </c>
@@ -4245,8 +4257,8 @@
       <c r="E125" s="9">
         <v>0</v>
       </c>
-      <c r="F125" s="9" t="s">
-        <v>15</v>
+      <c r="F125" s="9">
+        <v>0</v>
       </c>
       <c r="G125" s="9">
         <v>0</v>
@@ -4273,81 +4285,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>406114</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>15</v>
+        <v>929018</v>
+      </c>
+      <c r="F126" s="11">
+        <v>2015212</v>
       </c>
       <c r="G126" s="11">
-        <v>2015212</v>
+        <v>244591</v>
       </c>
       <c r="H126" s="11">
-        <v>244591</v>
+        <v>727013</v>
       </c>
       <c r="I126" s="11">
-        <v>727013</v>
+        <v>1392865</v>
       </c>
       <c r="J126" s="11">
-        <v>1392865</v>
+        <v>1248535</v>
       </c>
       <c r="K126" s="11">
-        <v>1248535</v>
+        <v>1334098</v>
       </c>
       <c r="L126" s="11">
-        <v>1334098</v>
+        <v>3801372</v>
       </c>
       <c r="M126" s="11">
-        <v>3801372</v>
+        <v>454887</v>
       </c>
       <c r="N126" s="11">
-        <v>454887</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3276601</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
-        <v>1147641</v>
+        <v>1765972</v>
       </c>
       <c r="F127" s="15">
-        <v>0</v>
+        <v>2938424</v>
       </c>
       <c r="G127" s="15">
-        <v>2938424</v>
+        <v>1429380</v>
       </c>
       <c r="H127" s="15">
-        <v>1429380</v>
+        <v>2424532</v>
       </c>
       <c r="I127" s="15">
-        <v>2424532</v>
+        <v>3194515</v>
       </c>
       <c r="J127" s="15">
-        <v>3194515</v>
+        <v>9019697</v>
       </c>
       <c r="K127" s="15">
-        <v>9019697</v>
+        <v>5014180</v>
       </c>
       <c r="L127" s="15">
-        <v>5014180</v>
+        <v>7453075</v>
       </c>
       <c r="M127" s="15">
-        <v>7453075</v>
+        <v>3833297</v>
       </c>
       <c r="N127" s="15">
-        <v>3833297</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5915177</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4362,7 +4374,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4377,7 +4389,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4392,7 +4404,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>58</v>
       </c>
@@ -4409,7 +4421,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4424,7 +4436,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>59</v>
       </c>
@@ -4443,7 +4455,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>61</v>
       </c>
@@ -4462,7 +4474,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>63</v>
       </c>
@@ -4472,8 +4484,16 @@
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>64</v>
       </c>
@@ -4483,8 +4503,16 @@
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>66</v>
       </c>
@@ -4495,7 +4523,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>68</v>
       </c>
@@ -4506,7 +4534,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>70</v>
       </c>
@@ -4517,7 +4545,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>72</v>
       </c>
@@ -4528,7 +4556,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>73</v>
       </c>
@@ -4539,7 +4567,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>75</v>
       </c>
@@ -4550,7 +4578,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>77</v>
       </c>
@@ -4560,6 +4588,28 @@
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
